--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="516" windowWidth="22716" windowHeight="8940"/>
+    <workbookView xWindow="210" yWindow="510" windowWidth="22710" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="DSA in 2.5 Months" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,14 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{C1A4E709-E9F1-4376-A047-F26FFC5F2C8F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{5451177E-605B-4368-AC7B-D46C41798C55}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{C1A4E709-E9F1-4376-A047-F26FFC5F2C8F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="468">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1441,12 +1441,15 @@
   <si>
     <t>Status</t>
   </si>
+  <si>
+    <t>Solved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1603,8 +1606,15 @@
       <color rgb="FF1155CC"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1653,6 +1663,11 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1663,10 +1678,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1792,8 +1808,13 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2005,17 +2026,17 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="B343" sqref="B343"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="88.21875" customWidth="1"/>
-    <col min="3" max="3" width="41.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -2048,7 +2069,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2099,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2106,7 +2127,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2361,7 +2382,9 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2393,7 +2416,9 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -3205,7 +3230,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="15">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
@@ -3233,12 +3258,12 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="15">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3270,7 +3295,9 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3302,7 +3329,9 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3338,7 +3367,9 @@
       <c r="D42" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3370,7 +3401,9 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3404,7 +3437,9 @@
         <v>57</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="43" t="s">
+        <v>467</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -3991,7 +4026,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="15">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
@@ -4019,7 +4054,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="15">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -5165,7 +5200,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="15">
       <c r="A99" s="23"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
@@ -5193,7 +5228,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="15">
       <c r="A100" s="23"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
@@ -5881,7 +5916,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="15">
       <c r="A122" s="23"/>
       <c r="B122" s="19"/>
       <c r="C122" s="20"/>
@@ -5907,7 +5942,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="15">
       <c r="A123" s="23"/>
       <c r="B123" s="19"/>
       <c r="C123" s="20"/>
@@ -6745,7 +6780,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="15">
       <c r="A150" s="23"/>
       <c r="B150" s="19"/>
       <c r="C150" s="20"/>
@@ -6773,7 +6808,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="15">
       <c r="A151" s="23"/>
       <c r="B151" s="19"/>
       <c r="C151" s="20"/>
@@ -7633,7 +7668,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="15">
       <c r="C179" s="20"/>
       <c r="D179" s="33"/>
       <c r="E179" s="2"/>
@@ -7659,7 +7694,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="15">
       <c r="A180" s="23"/>
       <c r="B180" s="19"/>
       <c r="C180" s="20"/>
@@ -8357,7 +8392,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" ht="15">
       <c r="A203" s="23"/>
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
@@ -8385,7 +8420,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" ht="15">
       <c r="A204" s="23"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
@@ -9461,7 +9496,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" ht="15">
       <c r="A238" s="23"/>
       <c r="B238" s="19"/>
       <c r="C238" s="20"/>
@@ -9489,7 +9524,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" ht="15">
       <c r="A239" s="23"/>
       <c r="B239" s="19"/>
       <c r="C239" s="20"/>
@@ -10158,7 +10193,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" ht="15">
       <c r="A261" s="23"/>
       <c r="B261" s="19"/>
       <c r="C261" s="20"/>
@@ -10186,7 +10221,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" ht="15">
       <c r="A262" s="23"/>
       <c r="B262" s="19"/>
       <c r="C262" s="20"/>
@@ -11100,7 +11135,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" ht="15">
       <c r="A291" s="23"/>
       <c r="B291" s="19"/>
       <c r="C291" s="20"/>
@@ -11127,7 +11162,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" ht="15">
       <c r="A292" s="23"/>
       <c r="B292" s="19"/>
       <c r="C292" s="20"/>
@@ -12437,7 +12472,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" ht="15">
       <c r="A333" s="23"/>
       <c r="B333" s="19"/>
       <c r="C333" s="20"/>
@@ -12465,7 +12500,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" ht="15">
       <c r="A334" s="23"/>
       <c r="B334" s="19"/>
       <c r="C334" s="20"/>
@@ -12685,7 +12720,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" ht="15">
       <c r="A341" s="23"/>
       <c r="B341" s="19"/>
       <c r="C341" s="20"/>
@@ -12713,7 +12748,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" ht="15">
       <c r="A342" s="23"/>
       <c r="B342" s="19"/>
       <c r="C342" s="20"/>
@@ -14469,7 +14504,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26">
+    <row r="397" spans="1:26" ht="15">
       <c r="C397" s="20"/>
       <c r="D397" s="2"/>
       <c r="E397" s="33"/>
@@ -14495,7 +14530,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26">
+    <row r="398" spans="1:26" ht="15">
       <c r="A398" s="23"/>
       <c r="B398" s="19"/>
       <c r="C398" s="20"/>
@@ -14823,7 +14858,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26">
+    <row r="409" spans="1:26" ht="15">
       <c r="A409" s="23"/>
       <c r="B409" s="19"/>
       <c r="C409" s="20"/>
@@ -14849,7 +14884,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26">
+    <row r="410" spans="1:26" ht="15">
       <c r="A410" s="23"/>
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
@@ -15061,7 +15096,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26">
+    <row r="417" spans="1:26" ht="15">
       <c r="A417" s="18"/>
       <c r="B417" s="19"/>
       <c r="C417" s="20"/>
@@ -15089,7 +15124,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26">
+    <row r="418" spans="1:26" ht="15">
       <c r="A418" s="18"/>
       <c r="B418" s="19"/>
       <c r="C418" s="20"/>
@@ -15117,7 +15152,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26">
+    <row r="419" spans="1:26" ht="15">
       <c r="A419" s="18"/>
       <c r="B419" s="19"/>
       <c r="C419" s="20"/>
@@ -15145,7 +15180,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26">
+    <row r="420" spans="1:26" ht="15">
       <c r="A420" s="18"/>
       <c r="B420" s="19"/>
       <c r="C420" s="20"/>
@@ -15173,7 +15208,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26">
+    <row r="421" spans="1:26" ht="15">
       <c r="A421" s="18"/>
       <c r="B421" s="19"/>
       <c r="C421" s="20"/>
@@ -15201,7 +15236,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26">
+    <row r="422" spans="1:26" ht="15">
       <c r="A422" s="18"/>
       <c r="B422" s="19"/>
       <c r="C422" s="20"/>
@@ -15229,7 +15264,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26">
+    <row r="423" spans="1:26" ht="15">
       <c r="A423" s="18"/>
       <c r="B423" s="19"/>
       <c r="C423" s="20"/>
@@ -15257,7 +15292,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26">
+    <row r="424" spans="1:26" ht="15">
       <c r="A424" s="18"/>
       <c r="B424" s="19"/>
       <c r="C424" s="20"/>
@@ -15285,7 +15320,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26">
+    <row r="425" spans="1:26" ht="15">
       <c r="A425" s="18"/>
       <c r="B425" s="19"/>
       <c r="C425" s="20"/>
@@ -15313,7 +15348,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26">
+    <row r="426" spans="1:26" ht="15">
       <c r="A426" s="18"/>
       <c r="B426" s="19"/>
       <c r="C426" s="20"/>
@@ -15341,7 +15376,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26">
+    <row r="427" spans="1:26" ht="15">
       <c r="A427" s="18"/>
       <c r="B427" s="19"/>
       <c r="C427" s="20"/>
@@ -15369,7 +15404,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26">
+    <row r="428" spans="1:26" ht="15">
       <c r="A428" s="18"/>
       <c r="B428" s="19"/>
       <c r="C428" s="20"/>
@@ -15397,7 +15432,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26">
+    <row r="429" spans="1:26" ht="15">
       <c r="A429" s="18"/>
       <c r="B429" s="19"/>
       <c r="C429" s="20"/>
@@ -15425,7 +15460,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26">
+    <row r="430" spans="1:26" ht="15">
       <c r="A430" s="18"/>
       <c r="B430" s="19"/>
       <c r="C430" s="20"/>
@@ -15453,7 +15488,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26">
+    <row r="431" spans="1:26" ht="15">
       <c r="A431" s="18"/>
       <c r="B431" s="19"/>
       <c r="C431" s="20"/>
@@ -15481,7 +15516,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26">
+    <row r="432" spans="1:26" ht="15">
       <c r="A432" s="18"/>
       <c r="B432" s="19"/>
       <c r="C432" s="20"/>
@@ -15509,7 +15544,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26">
+    <row r="433" spans="1:26" ht="15">
       <c r="A433" s="18"/>
       <c r="B433" s="19"/>
       <c r="C433" s="20"/>
@@ -15537,7 +15572,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26">
+    <row r="434" spans="1:26" ht="15">
       <c r="A434" s="18"/>
       <c r="B434" s="19"/>
       <c r="C434" s="20"/>
@@ -15565,7 +15600,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26">
+    <row r="435" spans="1:26" ht="15">
       <c r="A435" s="18"/>
       <c r="B435" s="19"/>
       <c r="C435" s="20"/>
@@ -15593,7 +15628,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26">
+    <row r="436" spans="1:26" ht="15">
       <c r="A436" s="18"/>
       <c r="B436" s="19"/>
       <c r="C436" s="20"/>
@@ -15621,7 +15656,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26">
+    <row r="437" spans="1:26" ht="15">
       <c r="A437" s="18"/>
       <c r="B437" s="19"/>
       <c r="C437" s="20"/>
@@ -15649,7 +15684,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26">
+    <row r="438" spans="1:26" ht="15">
       <c r="A438" s="18"/>
       <c r="B438" s="19"/>
       <c r="C438" s="20"/>
@@ -15677,7 +15712,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26">
+    <row r="439" spans="1:26" ht="15">
       <c r="A439" s="18"/>
       <c r="B439" s="19"/>
       <c r="C439" s="20"/>
@@ -15705,7 +15740,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26">
+    <row r="440" spans="1:26" ht="15">
       <c r="A440" s="18"/>
       <c r="B440" s="19"/>
       <c r="C440" s="20"/>
@@ -15733,7 +15768,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26">
+    <row r="441" spans="1:26" ht="15">
       <c r="A441" s="18"/>
       <c r="B441" s="19"/>
       <c r="C441" s="20"/>
@@ -15761,7 +15796,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26">
+    <row r="442" spans="1:26" ht="15">
       <c r="A442" s="18"/>
       <c r="B442" s="19"/>
       <c r="C442" s="20"/>
@@ -15789,7 +15824,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26">
+    <row r="443" spans="1:26" ht="15">
       <c r="A443" s="18"/>
       <c r="B443" s="19"/>
       <c r="C443" s="20"/>
@@ -15817,7 +15852,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26">
+    <row r="444" spans="1:26" ht="15">
       <c r="A444" s="18"/>
       <c r="B444" s="19"/>
       <c r="C444" s="20"/>
@@ -15845,7 +15880,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26">
+    <row r="445" spans="1:26" ht="15">
       <c r="A445" s="18"/>
       <c r="B445" s="19"/>
       <c r="C445" s="20"/>
@@ -15873,7 +15908,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26">
+    <row r="446" spans="1:26" ht="15">
       <c r="A446" s="18"/>
       <c r="B446" s="19"/>
       <c r="C446" s="20"/>
@@ -15901,7 +15936,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26">
+    <row r="447" spans="1:26" ht="15">
       <c r="A447" s="18"/>
       <c r="B447" s="19"/>
       <c r="C447" s="20"/>
@@ -15929,7 +15964,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26">
+    <row r="448" spans="1:26" ht="15">
       <c r="A448" s="18"/>
       <c r="B448" s="19"/>
       <c r="C448" s="20"/>
@@ -15957,7 +15992,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26">
+    <row r="449" spans="1:26" ht="15">
       <c r="A449" s="18"/>
       <c r="B449" s="19"/>
       <c r="C449" s="20"/>
@@ -15985,7 +16020,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26">
+    <row r="450" spans="1:26" ht="15">
       <c r="A450" s="18"/>
       <c r="B450" s="19"/>
       <c r="C450" s="20"/>
@@ -16013,7 +16048,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26">
+    <row r="451" spans="1:26" ht="15">
       <c r="A451" s="18"/>
       <c r="B451" s="19"/>
       <c r="C451" s="20"/>
@@ -16041,7 +16076,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26">
+    <row r="452" spans="1:26" ht="15">
       <c r="A452" s="18"/>
       <c r="B452" s="19"/>
       <c r="C452" s="20"/>
@@ -16069,7 +16104,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26">
+    <row r="453" spans="1:26" ht="15">
       <c r="A453" s="18"/>
       <c r="B453" s="19"/>
       <c r="C453" s="20"/>
@@ -16097,7 +16132,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26">
+    <row r="454" spans="1:26" ht="15">
       <c r="A454" s="18"/>
       <c r="B454" s="19"/>
       <c r="C454" s="20"/>
@@ -16125,7 +16160,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26">
+    <row r="455" spans="1:26" ht="15">
       <c r="A455" s="18"/>
       <c r="B455" s="19"/>
       <c r="C455" s="20"/>
@@ -16153,7 +16188,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26">
+    <row r="456" spans="1:26" ht="15">
       <c r="A456" s="18"/>
       <c r="B456" s="19"/>
       <c r="C456" s="20"/>
@@ -16181,7 +16216,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26">
+    <row r="457" spans="1:26" ht="15">
       <c r="A457" s="18"/>
       <c r="B457" s="19"/>
       <c r="C457" s="20"/>
@@ -16209,7 +16244,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26">
+    <row r="458" spans="1:26" ht="15">
       <c r="A458" s="18"/>
       <c r="B458" s="19"/>
       <c r="C458" s="20"/>
@@ -16237,7 +16272,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26">
+    <row r="459" spans="1:26" ht="15">
       <c r="A459" s="18"/>
       <c r="B459" s="19"/>
       <c r="C459" s="20"/>
@@ -16265,7 +16300,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26">
+    <row r="460" spans="1:26" ht="15">
       <c r="A460" s="18"/>
       <c r="B460" s="19"/>
       <c r="C460" s="20"/>
@@ -16293,7 +16328,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26">
+    <row r="461" spans="1:26" ht="15">
       <c r="A461" s="18"/>
       <c r="B461" s="19"/>
       <c r="C461" s="20"/>
@@ -16321,7 +16356,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26">
+    <row r="462" spans="1:26" ht="15">
       <c r="A462" s="18"/>
       <c r="B462" s="19"/>
       <c r="C462" s="20"/>
@@ -16349,7 +16384,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26">
+    <row r="463" spans="1:26" ht="15">
       <c r="A463" s="18"/>
       <c r="B463" s="19"/>
       <c r="C463" s="20"/>
@@ -16377,7 +16412,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26">
+    <row r="464" spans="1:26" ht="15">
       <c r="A464" s="18"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20"/>
@@ -16405,7 +16440,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26">
+    <row r="465" spans="1:26" ht="15">
       <c r="A465" s="18"/>
       <c r="B465" s="19"/>
       <c r="C465" s="20"/>
@@ -16433,7 +16468,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" spans="1:26" ht="15">
       <c r="A466" s="18"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20"/>
@@ -16461,7 +16496,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26">
+    <row r="467" spans="1:26" ht="15">
       <c r="A467" s="18"/>
       <c r="B467" s="19"/>
       <c r="C467" s="20"/>
@@ -16489,7 +16524,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" spans="1:26" ht="15">
       <c r="A468" s="18"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20"/>
@@ -16517,7 +16552,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26">
+    <row r="469" spans="1:26" ht="15">
       <c r="A469" s="18"/>
       <c r="B469" s="19"/>
       <c r="C469" s="20"/>
@@ -16545,7 +16580,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26">
+    <row r="470" spans="1:26" ht="15">
       <c r="A470" s="18"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20"/>
@@ -16573,7 +16608,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26">
+    <row r="471" spans="1:26" ht="15">
       <c r="A471" s="18"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20"/>
@@ -16601,7 +16636,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26">
+    <row r="472" spans="1:26" ht="15">
       <c r="A472" s="18"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20"/>
@@ -16629,7 +16664,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26">
+    <row r="473" spans="1:26" ht="15">
       <c r="A473" s="18"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20"/>
@@ -16657,7 +16692,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26">
+    <row r="474" spans="1:26" ht="15">
       <c r="A474" s="18"/>
       <c r="B474" s="19"/>
       <c r="C474" s="20"/>
@@ -16685,7 +16720,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26">
+    <row r="475" spans="1:26" ht="15">
       <c r="A475" s="18"/>
       <c r="B475" s="19"/>
       <c r="C475" s="20"/>
@@ -16713,7 +16748,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26">
+    <row r="476" spans="1:26" ht="15">
       <c r="A476" s="18"/>
       <c r="B476" s="19"/>
       <c r="C476" s="20"/>
@@ -16741,7 +16776,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26">
+    <row r="477" spans="1:26" ht="15">
       <c r="A477" s="18"/>
       <c r="B477" s="19"/>
       <c r="C477" s="20"/>
@@ -16769,7 +16804,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26">
+    <row r="478" spans="1:26" ht="15">
       <c r="A478" s="18"/>
       <c r="B478" s="19"/>
       <c r="C478" s="20"/>
@@ -16797,7 +16832,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26">
+    <row r="479" spans="1:26" ht="15">
       <c r="A479" s="18"/>
       <c r="B479" s="19"/>
       <c r="C479" s="20"/>
@@ -16825,7 +16860,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26">
+    <row r="480" spans="1:26" ht="15">
       <c r="A480" s="18"/>
       <c r="B480" s="19"/>
       <c r="C480" s="20"/>
@@ -16853,7 +16888,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26">
+    <row r="481" spans="1:26" ht="15">
       <c r="A481" s="18"/>
       <c r="B481" s="19"/>
       <c r="C481" s="20"/>
@@ -16881,7 +16916,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26">
+    <row r="482" spans="1:26" ht="15">
       <c r="A482" s="18"/>
       <c r="B482" s="19"/>
       <c r="C482" s="20"/>
@@ -16909,7 +16944,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26">
+    <row r="483" spans="1:26" ht="15">
       <c r="A483" s="18"/>
       <c r="B483" s="19"/>
       <c r="C483" s="20"/>
@@ -16937,7 +16972,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26">
+    <row r="484" spans="1:26" ht="15">
       <c r="A484" s="18"/>
       <c r="B484" s="19"/>
       <c r="C484" s="20"/>
@@ -16965,7 +17000,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26">
+    <row r="485" spans="1:26" ht="15">
       <c r="A485" s="18"/>
       <c r="B485" s="19"/>
       <c r="C485" s="20"/>
@@ -16993,7 +17028,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26">
+    <row r="486" spans="1:26" ht="15">
       <c r="A486" s="18"/>
       <c r="B486" s="19"/>
       <c r="C486" s="20"/>
@@ -17021,7 +17056,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26">
+    <row r="487" spans="1:26" ht="15">
       <c r="A487" s="18"/>
       <c r="B487" s="19"/>
       <c r="C487" s="20"/>
@@ -17049,7 +17084,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26">
+    <row r="488" spans="1:26" ht="15">
       <c r="A488" s="18"/>
       <c r="B488" s="19"/>
       <c r="C488" s="20"/>
@@ -17077,7 +17112,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26">
+    <row r="489" spans="1:26" ht="15">
       <c r="A489" s="18"/>
       <c r="B489" s="19"/>
       <c r="C489" s="20"/>
@@ -17105,7 +17140,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26">
+    <row r="490" spans="1:26" ht="15">
       <c r="A490" s="18"/>
       <c r="B490" s="19"/>
       <c r="C490" s="20"/>
@@ -17133,7 +17168,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26">
+    <row r="491" spans="1:26" ht="15">
       <c r="A491" s="18"/>
       <c r="B491" s="19"/>
       <c r="C491" s="20"/>
@@ -17161,7 +17196,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26">
+    <row r="492" spans="1:26" ht="15">
       <c r="A492" s="18"/>
       <c r="B492" s="19"/>
       <c r="C492" s="20"/>
@@ -17189,7 +17224,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26">
+    <row r="493" spans="1:26" ht="15">
       <c r="A493" s="18"/>
       <c r="B493" s="19"/>
       <c r="C493" s="20"/>
@@ -17217,7 +17252,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26">
+    <row r="494" spans="1:26" ht="15">
       <c r="A494" s="18"/>
       <c r="B494" s="19"/>
       <c r="C494" s="20"/>
@@ -17245,7 +17280,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26">
+    <row r="495" spans="1:26" ht="15">
       <c r="A495" s="18"/>
       <c r="B495" s="19"/>
       <c r="C495" s="20"/>
@@ -17273,7 +17308,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26">
+    <row r="496" spans="1:26" ht="15">
       <c r="A496" s="18"/>
       <c r="B496" s="19"/>
       <c r="C496" s="20"/>
@@ -17301,7 +17336,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26">
+    <row r="497" spans="1:26" ht="15">
       <c r="A497" s="18"/>
       <c r="B497" s="19"/>
       <c r="C497" s="20"/>
@@ -17329,7 +17364,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26">
+    <row r="498" spans="1:26" ht="15">
       <c r="A498" s="18"/>
       <c r="B498" s="19"/>
       <c r="C498" s="20"/>
@@ -17357,7 +17392,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26">
+    <row r="499" spans="1:26" ht="15">
       <c r="A499" s="18"/>
       <c r="B499" s="19"/>
       <c r="C499" s="20"/>
@@ -17385,7 +17420,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" spans="1:26" ht="15">
       <c r="A500" s="18"/>
       <c r="B500" s="19"/>
       <c r="C500" s="20"/>
@@ -17413,7 +17448,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26">
+    <row r="501" spans="1:26" ht="15">
       <c r="A501" s="18"/>
       <c r="B501" s="19"/>
       <c r="C501" s="20"/>
@@ -17441,7 +17476,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:26" ht="15">
       <c r="A502" s="18"/>
       <c r="B502" s="19"/>
       <c r="C502" s="20"/>
@@ -17469,7 +17504,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26">
+    <row r="503" spans="1:26" ht="15">
       <c r="A503" s="18"/>
       <c r="B503" s="19"/>
       <c r="C503" s="20"/>
@@ -17497,7 +17532,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26">
+    <row r="504" spans="1:26" ht="15">
       <c r="A504" s="18"/>
       <c r="B504" s="19"/>
       <c r="C504" s="20"/>
@@ -17525,7 +17560,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" spans="1:26" ht="15">
       <c r="A505" s="18"/>
       <c r="B505" s="19"/>
       <c r="C505" s="20"/>
@@ -17553,7 +17588,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26">
+    <row r="506" spans="1:26" ht="15">
       <c r="A506" s="18"/>
       <c r="B506" s="19"/>
       <c r="C506" s="20"/>
@@ -17581,7 +17616,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26">
+    <row r="507" spans="1:26" ht="15">
       <c r="A507" s="18"/>
       <c r="B507" s="19"/>
       <c r="C507" s="20"/>
@@ -17609,7 +17644,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26">
+    <row r="508" spans="1:26" ht="15">
       <c r="A508" s="18"/>
       <c r="B508" s="19"/>
       <c r="C508" s="20"/>
@@ -17637,7 +17672,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" spans="1:26" ht="15">
       <c r="A509" s="18"/>
       <c r="B509" s="19"/>
       <c r="C509" s="20"/>
@@ -17665,7 +17700,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26">
+    <row r="510" spans="1:26" ht="15">
       <c r="A510" s="18"/>
       <c r="B510" s="19"/>
       <c r="C510" s="20"/>
@@ -17693,7 +17728,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26">
+    <row r="511" spans="1:26" ht="15">
       <c r="A511" s="18"/>
       <c r="B511" s="19"/>
       <c r="C511" s="20"/>
@@ -17721,7 +17756,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26">
+    <row r="512" spans="1:26" ht="15">
       <c r="A512" s="18"/>
       <c r="B512" s="19"/>
       <c r="C512" s="20"/>
@@ -17749,7 +17784,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26">
+    <row r="513" spans="1:26" ht="15">
       <c r="A513" s="18"/>
       <c r="B513" s="19"/>
       <c r="C513" s="20"/>
@@ -17777,7 +17812,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26">
+    <row r="514" spans="1:26" ht="15">
       <c r="A514" s="18"/>
       <c r="B514" s="19"/>
       <c r="C514" s="20"/>
@@ -17805,7 +17840,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26">
+    <row r="515" spans="1:26" ht="15">
       <c r="A515" s="18"/>
       <c r="B515" s="19"/>
       <c r="C515" s="20"/>
@@ -17833,7 +17868,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26">
+    <row r="516" spans="1:26" ht="15">
       <c r="A516" s="18"/>
       <c r="B516" s="19"/>
       <c r="C516" s="20"/>
@@ -17861,7 +17896,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26">
+    <row r="517" spans="1:26" ht="15">
       <c r="A517" s="18"/>
       <c r="B517" s="19"/>
       <c r="C517" s="20"/>
@@ -17889,7 +17924,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26">
+    <row r="518" spans="1:26" ht="15">
       <c r="A518" s="18"/>
       <c r="B518" s="19"/>
       <c r="C518" s="20"/>
@@ -17917,7 +17952,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26">
+    <row r="519" spans="1:26" ht="15">
       <c r="A519" s="18"/>
       <c r="B519" s="19"/>
       <c r="C519" s="20"/>
@@ -17945,7 +17980,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26">
+    <row r="520" spans="1:26" ht="15">
       <c r="A520" s="18"/>
       <c r="B520" s="19"/>
       <c r="C520" s="20"/>
@@ -17973,7 +18008,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26">
+    <row r="521" spans="1:26" ht="15">
       <c r="A521" s="18"/>
       <c r="B521" s="19"/>
       <c r="C521" s="20"/>
@@ -18001,7 +18036,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26">
+    <row r="522" spans="1:26" ht="15">
       <c r="A522" s="18"/>
       <c r="B522" s="19"/>
       <c r="C522" s="20"/>
@@ -18029,7 +18064,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26">
+    <row r="523" spans="1:26" ht="15">
       <c r="A523" s="18"/>
       <c r="B523" s="19"/>
       <c r="C523" s="20"/>
@@ -18057,7 +18092,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26">
+    <row r="524" spans="1:26" ht="15">
       <c r="A524" s="18"/>
       <c r="B524" s="19"/>
       <c r="C524" s="20"/>
@@ -18085,7 +18120,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26">
+    <row r="525" spans="1:26" ht="15">
       <c r="A525" s="18"/>
       <c r="B525" s="19"/>
       <c r="C525" s="20"/>
@@ -18113,7 +18148,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26">
+    <row r="526" spans="1:26" ht="15">
       <c r="A526" s="18"/>
       <c r="B526" s="19"/>
       <c r="C526" s="20"/>
@@ -18141,7 +18176,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26">
+    <row r="527" spans="1:26" ht="15">
       <c r="A527" s="18"/>
       <c r="B527" s="19"/>
       <c r="C527" s="20"/>
@@ -18169,7 +18204,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26">
+    <row r="528" spans="1:26" ht="15">
       <c r="A528" s="18"/>
       <c r="B528" s="19"/>
       <c r="C528" s="20"/>
@@ -18197,7 +18232,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26">
+    <row r="529" spans="1:26" ht="15">
       <c r="A529" s="18"/>
       <c r="B529" s="19"/>
       <c r="C529" s="20"/>
@@ -18225,7 +18260,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26">
+    <row r="530" spans="1:26" ht="15">
       <c r="A530" s="18"/>
       <c r="B530" s="19"/>
       <c r="C530" s="20"/>
@@ -18253,7 +18288,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26">
+    <row r="531" spans="1:26" ht="15">
       <c r="A531" s="18"/>
       <c r="B531" s="19"/>
       <c r="C531" s="20"/>
@@ -18281,7 +18316,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26">
+    <row r="532" spans="1:26" ht="15">
       <c r="A532" s="18"/>
       <c r="B532" s="19"/>
       <c r="C532" s="20"/>
@@ -18309,7 +18344,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26">
+    <row r="533" spans="1:26" ht="15">
       <c r="A533" s="18"/>
       <c r="B533" s="19"/>
       <c r="C533" s="20"/>
@@ -18337,7 +18372,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26">
+    <row r="534" spans="1:26" ht="15">
       <c r="A534" s="18"/>
       <c r="B534" s="19"/>
       <c r="C534" s="20"/>
@@ -18365,7 +18400,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26">
+    <row r="535" spans="1:26" ht="15">
       <c r="A535" s="18"/>
       <c r="B535" s="19"/>
       <c r="C535" s="20"/>
@@ -18393,7 +18428,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26">
+    <row r="536" spans="1:26" ht="15">
       <c r="A536" s="18"/>
       <c r="B536" s="19"/>
       <c r="C536" s="20"/>
@@ -18421,7 +18456,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26">
+    <row r="537" spans="1:26" ht="15">
       <c r="A537" s="18"/>
       <c r="B537" s="19"/>
       <c r="C537" s="20"/>
@@ -18449,7 +18484,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26">
+    <row r="538" spans="1:26" ht="15">
       <c r="A538" s="18"/>
       <c r="B538" s="19"/>
       <c r="C538" s="20"/>
@@ -18477,7 +18512,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26">
+    <row r="539" spans="1:26" ht="15">
       <c r="A539" s="18"/>
       <c r="B539" s="19"/>
       <c r="C539" s="20"/>
@@ -18505,7 +18540,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26">
+    <row r="540" spans="1:26" ht="15">
       <c r="A540" s="18"/>
       <c r="B540" s="19"/>
       <c r="C540" s="20"/>
@@ -18533,7 +18568,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26">
+    <row r="541" spans="1:26" ht="15">
       <c r="A541" s="18"/>
       <c r="B541" s="19"/>
       <c r="C541" s="20"/>
@@ -18561,7 +18596,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26">
+    <row r="542" spans="1:26" ht="15">
       <c r="A542" s="18"/>
       <c r="B542" s="19"/>
       <c r="C542" s="20"/>
@@ -18589,7 +18624,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26">
+    <row r="543" spans="1:26" ht="15">
       <c r="A543" s="18"/>
       <c r="B543" s="19"/>
       <c r="C543" s="20"/>
@@ -18617,7 +18652,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26">
+    <row r="544" spans="1:26" ht="15">
       <c r="A544" s="18"/>
       <c r="B544" s="19"/>
       <c r="C544" s="20"/>
@@ -18645,7 +18680,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26">
+    <row r="545" spans="1:26" ht="15">
       <c r="A545" s="18"/>
       <c r="B545" s="19"/>
       <c r="C545" s="20"/>
@@ -18673,7 +18708,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26">
+    <row r="546" spans="1:26" ht="15">
       <c r="A546" s="18"/>
       <c r="B546" s="19"/>
       <c r="C546" s="20"/>
@@ -18701,7 +18736,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26">
+    <row r="547" spans="1:26" ht="15">
       <c r="A547" s="18"/>
       <c r="B547" s="19"/>
       <c r="C547" s="20"/>
@@ -18729,7 +18764,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26">
+    <row r="548" spans="1:26" ht="15">
       <c r="A548" s="18"/>
       <c r="B548" s="19"/>
       <c r="C548" s="20"/>
@@ -18757,7 +18792,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26">
+    <row r="549" spans="1:26" ht="15">
       <c r="A549" s="18"/>
       <c r="B549" s="19"/>
       <c r="C549" s="20"/>
@@ -18785,7 +18820,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26">
+    <row r="550" spans="1:26" ht="15">
       <c r="A550" s="18"/>
       <c r="B550" s="19"/>
       <c r="C550" s="20"/>
@@ -18813,7 +18848,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26">
+    <row r="551" spans="1:26" ht="15">
       <c r="A551" s="18"/>
       <c r="B551" s="19"/>
       <c r="C551" s="20"/>
@@ -18841,7 +18876,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26">
+    <row r="552" spans="1:26" ht="15">
       <c r="A552" s="18"/>
       <c r="B552" s="19"/>
       <c r="C552" s="20"/>
@@ -18869,7 +18904,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26">
+    <row r="553" spans="1:26" ht="15">
       <c r="A553" s="18"/>
       <c r="B553" s="19"/>
       <c r="C553" s="20"/>
@@ -18897,7 +18932,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26">
+    <row r="554" spans="1:26" ht="15">
       <c r="A554" s="18"/>
       <c r="B554" s="19"/>
       <c r="C554" s="20"/>
@@ -18925,7 +18960,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26">
+    <row r="555" spans="1:26" ht="15">
       <c r="A555" s="18"/>
       <c r="B555" s="19"/>
       <c r="C555" s="20"/>
@@ -18953,7 +18988,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26">
+    <row r="556" spans="1:26" ht="15">
       <c r="A556" s="18"/>
       <c r="B556" s="19"/>
       <c r="C556" s="20"/>
@@ -18981,7 +19016,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26">
+    <row r="557" spans="1:26" ht="15">
       <c r="A557" s="18"/>
       <c r="B557" s="19"/>
       <c r="C557" s="20"/>
@@ -19009,7 +19044,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26">
+    <row r="558" spans="1:26" ht="15">
       <c r="A558" s="18"/>
       <c r="B558" s="19"/>
       <c r="C558" s="20"/>
@@ -19037,7 +19072,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26">
+    <row r="559" spans="1:26" ht="15">
       <c r="A559" s="18"/>
       <c r="B559" s="19"/>
       <c r="C559" s="20"/>
@@ -19065,7 +19100,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26">
+    <row r="560" spans="1:26" ht="15">
       <c r="A560" s="18"/>
       <c r="B560" s="19"/>
       <c r="C560" s="20"/>
@@ -19093,7 +19128,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26">
+    <row r="561" spans="1:26" ht="15">
       <c r="A561" s="18"/>
       <c r="B561" s="19"/>
       <c r="C561" s="20"/>
@@ -19121,7 +19156,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26">
+    <row r="562" spans="1:26" ht="15">
       <c r="A562" s="18"/>
       <c r="B562" s="19"/>
       <c r="C562" s="20"/>
@@ -19149,7 +19184,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26">
+    <row r="563" spans="1:26" ht="15">
       <c r="A563" s="18"/>
       <c r="B563" s="19"/>
       <c r="C563" s="20"/>
@@ -19177,7 +19212,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26">
+    <row r="564" spans="1:26" ht="15">
       <c r="A564" s="18"/>
       <c r="B564" s="19"/>
       <c r="C564" s="20"/>
@@ -19205,7 +19240,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26">
+    <row r="565" spans="1:26" ht="15">
       <c r="A565" s="18"/>
       <c r="B565" s="19"/>
       <c r="C565" s="20"/>
@@ -19233,7 +19268,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26">
+    <row r="566" spans="1:26" ht="15">
       <c r="A566" s="18"/>
       <c r="B566" s="19"/>
       <c r="C566" s="20"/>
@@ -19261,7 +19296,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26">
+    <row r="567" spans="1:26" ht="15">
       <c r="A567" s="18"/>
       <c r="B567" s="19"/>
       <c r="C567" s="20"/>
@@ -19289,7 +19324,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26">
+    <row r="568" spans="1:26" ht="15">
       <c r="A568" s="18"/>
       <c r="B568" s="19"/>
       <c r="C568" s="20"/>
@@ -19317,7 +19352,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26">
+    <row r="569" spans="1:26" ht="15">
       <c r="A569" s="18"/>
       <c r="B569" s="19"/>
       <c r="C569" s="20"/>
@@ -19345,7 +19380,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26">
+    <row r="570" spans="1:26" ht="15">
       <c r="A570" s="18"/>
       <c r="B570" s="19"/>
       <c r="C570" s="20"/>
@@ -19373,7 +19408,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26">
+    <row r="571" spans="1:26" ht="15">
       <c r="A571" s="18"/>
       <c r="B571" s="19"/>
       <c r="C571" s="20"/>
@@ -19401,7 +19436,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26">
+    <row r="572" spans="1:26" ht="15">
       <c r="A572" s="18"/>
       <c r="B572" s="19"/>
       <c r="C572" s="20"/>
@@ -19429,7 +19464,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26">
+    <row r="573" spans="1:26" ht="15">
       <c r="A573" s="18"/>
       <c r="B573" s="19"/>
       <c r="C573" s="20"/>
@@ -19457,7 +19492,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26">
+    <row r="574" spans="1:26" ht="15">
       <c r="A574" s="18"/>
       <c r="B574" s="19"/>
       <c r="C574" s="20"/>
@@ -19485,7 +19520,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26">
+    <row r="575" spans="1:26" ht="15">
       <c r="A575" s="18"/>
       <c r="B575" s="19"/>
       <c r="C575" s="20"/>
@@ -19513,7 +19548,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26">
+    <row r="576" spans="1:26" ht="15">
       <c r="A576" s="18"/>
       <c r="B576" s="19"/>
       <c r="C576" s="20"/>
@@ -19541,7 +19576,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26">
+    <row r="577" spans="1:26" ht="15">
       <c r="A577" s="18"/>
       <c r="B577" s="19"/>
       <c r="C577" s="20"/>
@@ -19569,7 +19604,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26">
+    <row r="578" spans="1:26" ht="15">
       <c r="A578" s="18"/>
       <c r="B578" s="19"/>
       <c r="C578" s="20"/>
@@ -19597,7 +19632,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26">
+    <row r="579" spans="1:26" ht="15">
       <c r="A579" s="18"/>
       <c r="B579" s="19"/>
       <c r="C579" s="20"/>
@@ -19625,7 +19660,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26">
+    <row r="580" spans="1:26" ht="15">
       <c r="A580" s="18"/>
       <c r="B580" s="19"/>
       <c r="C580" s="20"/>
@@ -19653,7 +19688,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26">
+    <row r="581" spans="1:26" ht="15">
       <c r="A581" s="18"/>
       <c r="B581" s="19"/>
       <c r="C581" s="20"/>
@@ -19681,7 +19716,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26">
+    <row r="582" spans="1:26" ht="15">
       <c r="A582" s="18"/>
       <c r="B582" s="19"/>
       <c r="C582" s="20"/>
@@ -19709,7 +19744,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26">
+    <row r="583" spans="1:26" ht="15">
       <c r="A583" s="18"/>
       <c r="B583" s="19"/>
       <c r="C583" s="20"/>
@@ -19737,7 +19772,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26">
+    <row r="584" spans="1:26" ht="15">
       <c r="A584" s="18"/>
       <c r="B584" s="19"/>
       <c r="C584" s="20"/>
@@ -19765,7 +19800,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26">
+    <row r="585" spans="1:26" ht="15">
       <c r="A585" s="18"/>
       <c r="B585" s="19"/>
       <c r="C585" s="20"/>
@@ -19793,7 +19828,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26">
+    <row r="586" spans="1:26" ht="15">
       <c r="A586" s="18"/>
       <c r="B586" s="19"/>
       <c r="C586" s="20"/>
@@ -19821,7 +19856,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26">
+    <row r="587" spans="1:26" ht="15">
       <c r="A587" s="18"/>
       <c r="B587" s="19"/>
       <c r="C587" s="20"/>
@@ -19849,7 +19884,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26">
+    <row r="588" spans="1:26" ht="15">
       <c r="A588" s="18"/>
       <c r="B588" s="19"/>
       <c r="C588" s="20"/>
@@ -19877,7 +19912,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26">
+    <row r="589" spans="1:26" ht="15">
       <c r="A589" s="18"/>
       <c r="B589" s="19"/>
       <c r="C589" s="20"/>
@@ -19905,7 +19940,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26">
+    <row r="590" spans="1:26" ht="15">
       <c r="A590" s="18"/>
       <c r="B590" s="19"/>
       <c r="C590" s="20"/>
@@ -19933,7 +19968,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26">
+    <row r="591" spans="1:26" ht="15">
       <c r="A591" s="18"/>
       <c r="B591" s="19"/>
       <c r="C591" s="20"/>
@@ -19961,7 +19996,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26">
+    <row r="592" spans="1:26" ht="15">
       <c r="A592" s="18"/>
       <c r="B592" s="19"/>
       <c r="C592" s="20"/>
@@ -19989,7 +20024,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26">
+    <row r="593" spans="1:26" ht="15">
       <c r="A593" s="18"/>
       <c r="B593" s="19"/>
       <c r="C593" s="20"/>
@@ -20017,7 +20052,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26">
+    <row r="594" spans="1:26" ht="15">
       <c r="A594" s="18"/>
       <c r="B594" s="19"/>
       <c r="C594" s="20"/>
@@ -20045,7 +20080,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26">
+    <row r="595" spans="1:26" ht="15">
       <c r="A595" s="18"/>
       <c r="B595" s="19"/>
       <c r="C595" s="20"/>
@@ -20073,7 +20108,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26">
+    <row r="596" spans="1:26" ht="15">
       <c r="A596" s="18"/>
       <c r="B596" s="19"/>
       <c r="C596" s="20"/>
@@ -20101,7 +20136,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26">
+    <row r="597" spans="1:26" ht="15">
       <c r="A597" s="18"/>
       <c r="B597" s="19"/>
       <c r="C597" s="20"/>
@@ -20129,7 +20164,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26">
+    <row r="598" spans="1:26" ht="15">
       <c r="A598" s="18"/>
       <c r="B598" s="19"/>
       <c r="C598" s="20"/>
@@ -20157,7 +20192,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26">
+    <row r="599" spans="1:26" ht="15">
       <c r="A599" s="18"/>
       <c r="B599" s="19"/>
       <c r="C599" s="20"/>
@@ -20185,7 +20220,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26">
+    <row r="600" spans="1:26" ht="15">
       <c r="A600" s="18"/>
       <c r="B600" s="19"/>
       <c r="C600" s="20"/>
@@ -20213,7 +20248,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26">
+    <row r="601" spans="1:26" ht="15">
       <c r="A601" s="18"/>
       <c r="B601" s="19"/>
       <c r="C601" s="20"/>
@@ -20241,7 +20276,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26">
+    <row r="602" spans="1:26" ht="15">
       <c r="A602" s="18"/>
       <c r="B602" s="19"/>
       <c r="C602" s="20"/>
@@ -20269,7 +20304,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26">
+    <row r="603" spans="1:26" ht="15">
       <c r="A603" s="18"/>
       <c r="B603" s="19"/>
       <c r="C603" s="20"/>
@@ -20297,7 +20332,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26">
+    <row r="604" spans="1:26" ht="15">
       <c r="A604" s="18"/>
       <c r="B604" s="19"/>
       <c r="C604" s="20"/>
@@ -20325,7 +20360,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26">
+    <row r="605" spans="1:26" ht="15">
       <c r="A605" s="18"/>
       <c r="B605" s="19"/>
       <c r="C605" s="20"/>
@@ -20353,7 +20388,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26">
+    <row r="606" spans="1:26" ht="15">
       <c r="A606" s="18"/>
       <c r="B606" s="19"/>
       <c r="C606" s="20"/>
@@ -20381,7 +20416,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26">
+    <row r="607" spans="1:26" ht="15">
       <c r="A607" s="18"/>
       <c r="B607" s="19"/>
       <c r="C607" s="20"/>
@@ -20409,7 +20444,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26">
+    <row r="608" spans="1:26" ht="15">
       <c r="A608" s="18"/>
       <c r="B608" s="19"/>
       <c r="C608" s="20"/>
@@ -20437,7 +20472,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26">
+    <row r="609" spans="1:26" ht="15">
       <c r="A609" s="18"/>
       <c r="B609" s="19"/>
       <c r="C609" s="20"/>
@@ -20465,7 +20500,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26">
+    <row r="610" spans="1:26" ht="15">
       <c r="A610" s="18"/>
       <c r="B610" s="19"/>
       <c r="C610" s="20"/>
@@ -20493,7 +20528,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26">
+    <row r="611" spans="1:26" ht="15">
       <c r="A611" s="18"/>
       <c r="B611" s="19"/>
       <c r="C611" s="20"/>
@@ -20521,7 +20556,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26">
+    <row r="612" spans="1:26" ht="15">
       <c r="A612" s="18"/>
       <c r="B612" s="19"/>
       <c r="C612" s="20"/>
@@ -20549,7 +20584,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26">
+    <row r="613" spans="1:26" ht="15">
       <c r="A613" s="18"/>
       <c r="B613" s="19"/>
       <c r="C613" s="20"/>
@@ -20577,7 +20612,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26">
+    <row r="614" spans="1:26" ht="15">
       <c r="A614" s="18"/>
       <c r="B614" s="19"/>
       <c r="C614" s="20"/>
@@ -20605,7 +20640,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26">
+    <row r="615" spans="1:26" ht="15">
       <c r="A615" s="18"/>
       <c r="B615" s="19"/>
       <c r="C615" s="20"/>
@@ -20633,7 +20668,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26">
+    <row r="616" spans="1:26" ht="15">
       <c r="A616" s="18"/>
       <c r="B616" s="19"/>
       <c r="C616" s="20"/>
@@ -20661,7 +20696,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26">
+    <row r="617" spans="1:26" ht="15">
       <c r="A617" s="18"/>
       <c r="B617" s="19"/>
       <c r="C617" s="20"/>
@@ -20689,7 +20724,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26">
+    <row r="618" spans="1:26" ht="15">
       <c r="A618" s="18"/>
       <c r="B618" s="19"/>
       <c r="C618" s="20"/>
@@ -20717,7 +20752,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26">
+    <row r="619" spans="1:26" ht="15">
       <c r="A619" s="18"/>
       <c r="B619" s="19"/>
       <c r="C619" s="20"/>
@@ -20745,7 +20780,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26">
+    <row r="620" spans="1:26" ht="15">
       <c r="A620" s="18"/>
       <c r="B620" s="19"/>
       <c r="C620" s="20"/>
@@ -20773,7 +20808,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26">
+    <row r="621" spans="1:26" ht="15">
       <c r="A621" s="18"/>
       <c r="B621" s="19"/>
       <c r="C621" s="20"/>
@@ -20801,7 +20836,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26">
+    <row r="622" spans="1:26" ht="15">
       <c r="A622" s="18"/>
       <c r="B622" s="19"/>
       <c r="C622" s="20"/>
@@ -20829,7 +20864,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26">
+    <row r="623" spans="1:26" ht="15">
       <c r="A623" s="18"/>
       <c r="B623" s="19"/>
       <c r="C623" s="20"/>
@@ -20857,7 +20892,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26">
+    <row r="624" spans="1:26" ht="15">
       <c r="A624" s="18"/>
       <c r="B624" s="19"/>
       <c r="C624" s="20"/>
@@ -20885,7 +20920,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26">
+    <row r="625" spans="1:26" ht="15">
       <c r="A625" s="18"/>
       <c r="B625" s="19"/>
       <c r="C625" s="20"/>
@@ -20913,7 +20948,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26">
+    <row r="626" spans="1:26" ht="15">
       <c r="A626" s="18"/>
       <c r="B626" s="19"/>
       <c r="C626" s="20"/>
@@ -20941,7 +20976,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26">
+    <row r="627" spans="1:26" ht="15">
       <c r="A627" s="18"/>
       <c r="B627" s="19"/>
       <c r="C627" s="20"/>
@@ -20969,7 +21004,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26">
+    <row r="628" spans="1:26" ht="15">
       <c r="A628" s="18"/>
       <c r="B628" s="19"/>
       <c r="C628" s="20"/>
@@ -20997,7 +21032,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26">
+    <row r="629" spans="1:26" ht="15">
       <c r="A629" s="18"/>
       <c r="B629" s="19"/>
       <c r="C629" s="20"/>
@@ -21025,7 +21060,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26">
+    <row r="630" spans="1:26" ht="15">
       <c r="A630" s="18"/>
       <c r="B630" s="19"/>
       <c r="C630" s="20"/>
@@ -21053,7 +21088,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26">
+    <row r="631" spans="1:26" ht="15">
       <c r="A631" s="18"/>
       <c r="B631" s="19"/>
       <c r="C631" s="20"/>
@@ -21081,7 +21116,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26">
+    <row r="632" spans="1:26" ht="15">
       <c r="A632" s="18"/>
       <c r="B632" s="19"/>
       <c r="C632" s="20"/>
@@ -21109,7 +21144,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26">
+    <row r="633" spans="1:26" ht="15">
       <c r="A633" s="18"/>
       <c r="B633" s="19"/>
       <c r="C633" s="20"/>
@@ -21137,7 +21172,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26">
+    <row r="634" spans="1:26" ht="15">
       <c r="A634" s="18"/>
       <c r="B634" s="19"/>
       <c r="C634" s="20"/>
@@ -21165,7 +21200,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26">
+    <row r="635" spans="1:26" ht="15">
       <c r="A635" s="18"/>
       <c r="B635" s="19"/>
       <c r="C635" s="20"/>
@@ -21193,7 +21228,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26">
+    <row r="636" spans="1:26" ht="15">
       <c r="A636" s="18"/>
       <c r="B636" s="19"/>
       <c r="C636" s="20"/>
@@ -21221,7 +21256,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26">
+    <row r="637" spans="1:26" ht="15">
       <c r="A637" s="18"/>
       <c r="B637" s="19"/>
       <c r="C637" s="20"/>
@@ -21249,7 +21284,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26">
+    <row r="638" spans="1:26" ht="15">
       <c r="A638" s="18"/>
       <c r="B638" s="19"/>
       <c r="C638" s="20"/>
@@ -21277,7 +21312,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26">
+    <row r="639" spans="1:26" ht="15">
       <c r="A639" s="18"/>
       <c r="B639" s="19"/>
       <c r="C639" s="20"/>
@@ -21305,7 +21340,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26">
+    <row r="640" spans="1:26" ht="15">
       <c r="A640" s="18"/>
       <c r="B640" s="19"/>
       <c r="C640" s="20"/>
@@ -21333,7 +21368,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26">
+    <row r="641" spans="1:26" ht="15">
       <c r="A641" s="18"/>
       <c r="B641" s="19"/>
       <c r="C641" s="20"/>
@@ -21361,7 +21396,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26">
+    <row r="642" spans="1:26" ht="15">
       <c r="A642" s="18"/>
       <c r="B642" s="19"/>
       <c r="C642" s="20"/>
@@ -21389,7 +21424,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26">
+    <row r="643" spans="1:26" ht="15">
       <c r="A643" s="18"/>
       <c r="B643" s="19"/>
       <c r="C643" s="20"/>
@@ -21417,7 +21452,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26">
+    <row r="644" spans="1:26" ht="15">
       <c r="A644" s="18"/>
       <c r="B644" s="19"/>
       <c r="C644" s="20"/>
@@ -21445,7 +21480,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26">
+    <row r="645" spans="1:26" ht="15">
       <c r="A645" s="18"/>
       <c r="B645" s="19"/>
       <c r="C645" s="20"/>
@@ -21473,7 +21508,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26">
+    <row r="646" spans="1:26" ht="15">
       <c r="A646" s="18"/>
       <c r="B646" s="19"/>
       <c r="C646" s="20"/>
@@ -21501,7 +21536,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26">
+    <row r="647" spans="1:26" ht="15">
       <c r="A647" s="18"/>
       <c r="B647" s="19"/>
       <c r="C647" s="20"/>
@@ -21529,7 +21564,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26">
+    <row r="648" spans="1:26" ht="15">
       <c r="A648" s="18"/>
       <c r="B648" s="19"/>
       <c r="C648" s="20"/>
@@ -21557,7 +21592,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26">
+    <row r="649" spans="1:26" ht="15">
       <c r="A649" s="18"/>
       <c r="B649" s="19"/>
       <c r="C649" s="20"/>
@@ -21585,7 +21620,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26">
+    <row r="650" spans="1:26" ht="15">
       <c r="A650" s="18"/>
       <c r="B650" s="19"/>
       <c r="C650" s="20"/>
@@ -21613,7 +21648,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26">
+    <row r="651" spans="1:26" ht="15">
       <c r="A651" s="18"/>
       <c r="B651" s="19"/>
       <c r="C651" s="20"/>
@@ -21641,7 +21676,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26">
+    <row r="652" spans="1:26" ht="15">
       <c r="A652" s="18"/>
       <c r="B652" s="19"/>
       <c r="C652" s="20"/>
@@ -21669,7 +21704,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26">
+    <row r="653" spans="1:26" ht="15">
       <c r="A653" s="18"/>
       <c r="B653" s="19"/>
       <c r="C653" s="20"/>
@@ -21697,7 +21732,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26">
+    <row r="654" spans="1:26" ht="15">
       <c r="A654" s="18"/>
       <c r="B654" s="19"/>
       <c r="C654" s="20"/>
@@ -21725,7 +21760,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26">
+    <row r="655" spans="1:26" ht="15">
       <c r="A655" s="18"/>
       <c r="B655" s="19"/>
       <c r="C655" s="20"/>
@@ -21753,7 +21788,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26">
+    <row r="656" spans="1:26" ht="15">
       <c r="A656" s="18"/>
       <c r="B656" s="19"/>
       <c r="C656" s="20"/>
@@ -21781,7 +21816,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26">
+    <row r="657" spans="1:26" ht="15">
       <c r="A657" s="18"/>
       <c r="B657" s="19"/>
       <c r="C657" s="20"/>
@@ -21809,7 +21844,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26">
+    <row r="658" spans="1:26" ht="15">
       <c r="A658" s="18"/>
       <c r="B658" s="19"/>
       <c r="C658" s="20"/>
@@ -21837,7 +21872,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26">
+    <row r="659" spans="1:26" ht="15">
       <c r="A659" s="18"/>
       <c r="B659" s="19"/>
       <c r="C659" s="20"/>
@@ -21865,7 +21900,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26">
+    <row r="660" spans="1:26" ht="15">
       <c r="A660" s="18"/>
       <c r="B660" s="19"/>
       <c r="C660" s="20"/>
@@ -21893,7 +21928,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26">
+    <row r="661" spans="1:26" ht="15">
       <c r="A661" s="18"/>
       <c r="B661" s="19"/>
       <c r="C661" s="20"/>
@@ -21921,7 +21956,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26">
+    <row r="662" spans="1:26" ht="15">
       <c r="A662" s="18"/>
       <c r="B662" s="19"/>
       <c r="C662" s="20"/>
@@ -21949,7 +21984,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26">
+    <row r="663" spans="1:26" ht="15">
       <c r="A663" s="18"/>
       <c r="B663" s="19"/>
       <c r="C663" s="20"/>
@@ -21977,7 +22012,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26">
+    <row r="664" spans="1:26" ht="15">
       <c r="A664" s="18"/>
       <c r="B664" s="19"/>
       <c r="C664" s="20"/>
@@ -22005,7 +22040,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26">
+    <row r="665" spans="1:26" ht="15">
       <c r="A665" s="18"/>
       <c r="B665" s="19"/>
       <c r="C665" s="20"/>
@@ -22033,7 +22068,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26">
+    <row r="666" spans="1:26" ht="15">
       <c r="A666" s="18"/>
       <c r="B666" s="19"/>
       <c r="C666" s="20"/>
@@ -22061,7 +22096,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26">
+    <row r="667" spans="1:26" ht="15">
       <c r="A667" s="18"/>
       <c r="B667" s="19"/>
       <c r="C667" s="20"/>
@@ -22089,7 +22124,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26">
+    <row r="668" spans="1:26" ht="15">
       <c r="A668" s="18"/>
       <c r="B668" s="19"/>
       <c r="C668" s="20"/>
@@ -22117,7 +22152,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26">
+    <row r="669" spans="1:26" ht="15">
       <c r="A669" s="18"/>
       <c r="B669" s="19"/>
       <c r="C669" s="20"/>
@@ -22145,7 +22180,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26">
+    <row r="670" spans="1:26" ht="15">
       <c r="A670" s="18"/>
       <c r="B670" s="19"/>
       <c r="C670" s="20"/>
@@ -22173,7 +22208,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26">
+    <row r="671" spans="1:26" ht="15">
       <c r="A671" s="18"/>
       <c r="B671" s="19"/>
       <c r="C671" s="20"/>
@@ -22201,7 +22236,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26">
+    <row r="672" spans="1:26" ht="15">
       <c r="A672" s="18"/>
       <c r="B672" s="19"/>
       <c r="C672" s="20"/>
@@ -22229,7 +22264,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26">
+    <row r="673" spans="1:26" ht="15">
       <c r="A673" s="18"/>
       <c r="B673" s="19"/>
       <c r="C673" s="20"/>
@@ -22257,7 +22292,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26">
+    <row r="674" spans="1:26" ht="15">
       <c r="A674" s="18"/>
       <c r="B674" s="19"/>
       <c r="C674" s="20"/>
@@ -22285,7 +22320,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26">
+    <row r="675" spans="1:26" ht="15">
       <c r="A675" s="18"/>
       <c r="B675" s="19"/>
       <c r="C675" s="20"/>
@@ -22313,7 +22348,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26">
+    <row r="676" spans="1:26" ht="15">
       <c r="A676" s="18"/>
       <c r="B676" s="19"/>
       <c r="C676" s="20"/>
@@ -22341,7 +22376,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26">
+    <row r="677" spans="1:26" ht="15">
       <c r="A677" s="18"/>
       <c r="B677" s="19"/>
       <c r="C677" s="20"/>
@@ -22369,7 +22404,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26">
+    <row r="678" spans="1:26" ht="15">
       <c r="A678" s="18"/>
       <c r="B678" s="19"/>
       <c r="C678" s="20"/>
@@ -22397,7 +22432,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26">
+    <row r="679" spans="1:26" ht="15">
       <c r="A679" s="18"/>
       <c r="B679" s="19"/>
       <c r="C679" s="20"/>
@@ -22425,7 +22460,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26">
+    <row r="680" spans="1:26" ht="15">
       <c r="A680" s="18"/>
       <c r="B680" s="19"/>
       <c r="C680" s="20"/>
@@ -22453,7 +22488,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26">
+    <row r="681" spans="1:26" ht="15">
       <c r="A681" s="18"/>
       <c r="B681" s="19"/>
       <c r="C681" s="20"/>
@@ -22481,7 +22516,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26">
+    <row r="682" spans="1:26" ht="15">
       <c r="A682" s="18"/>
       <c r="B682" s="19"/>
       <c r="C682" s="20"/>
@@ -22509,7 +22544,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26">
+    <row r="683" spans="1:26" ht="15">
       <c r="A683" s="18"/>
       <c r="B683" s="19"/>
       <c r="C683" s="20"/>
@@ -22537,7 +22572,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26">
+    <row r="684" spans="1:26" ht="15">
       <c r="A684" s="18"/>
       <c r="B684" s="19"/>
       <c r="C684" s="20"/>
@@ -22565,7 +22600,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26">
+    <row r="685" spans="1:26" ht="15">
       <c r="A685" s="18"/>
       <c r="B685" s="19"/>
       <c r="C685" s="20"/>
@@ -22593,7 +22628,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26">
+    <row r="686" spans="1:26" ht="15">
       <c r="A686" s="18"/>
       <c r="B686" s="19"/>
       <c r="C686" s="20"/>
@@ -22621,7 +22656,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26">
+    <row r="687" spans="1:26" ht="15">
       <c r="A687" s="18"/>
       <c r="B687" s="19"/>
       <c r="C687" s="20"/>
@@ -22649,7 +22684,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26">
+    <row r="688" spans="1:26" ht="15">
       <c r="A688" s="18"/>
       <c r="B688" s="19"/>
       <c r="C688" s="20"/>
@@ -22677,7 +22712,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26">
+    <row r="689" spans="1:26" ht="15">
       <c r="A689" s="18"/>
       <c r="B689" s="19"/>
       <c r="C689" s="20"/>
@@ -22705,7 +22740,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26">
+    <row r="690" spans="1:26" ht="15">
       <c r="A690" s="18"/>
       <c r="B690" s="19"/>
       <c r="C690" s="20"/>
@@ -22733,7 +22768,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26">
+    <row r="691" spans="1:26" ht="15">
       <c r="A691" s="18"/>
       <c r="B691" s="19"/>
       <c r="C691" s="20"/>
@@ -22761,7 +22796,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26">
+    <row r="692" spans="1:26" ht="15">
       <c r="A692" s="18"/>
       <c r="B692" s="19"/>
       <c r="C692" s="20"/>
@@ -22789,7 +22824,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26">
+    <row r="693" spans="1:26" ht="15">
       <c r="A693" s="18"/>
       <c r="B693" s="19"/>
       <c r="C693" s="20"/>
@@ -22817,7 +22852,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26">
+    <row r="694" spans="1:26" ht="15">
       <c r="A694" s="18"/>
       <c r="B694" s="19"/>
       <c r="C694" s="20"/>
@@ -22845,7 +22880,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26">
+    <row r="695" spans="1:26" ht="15">
       <c r="A695" s="18"/>
       <c r="B695" s="19"/>
       <c r="C695" s="20"/>
@@ -22873,7 +22908,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26">
+    <row r="696" spans="1:26" ht="15">
       <c r="A696" s="18"/>
       <c r="B696" s="19"/>
       <c r="C696" s="20"/>
@@ -22901,7 +22936,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26">
+    <row r="697" spans="1:26" ht="15">
       <c r="A697" s="18"/>
       <c r="B697" s="19"/>
       <c r="C697" s="20"/>
@@ -22929,7 +22964,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26">
+    <row r="698" spans="1:26" ht="15">
       <c r="A698" s="18"/>
       <c r="B698" s="19"/>
       <c r="C698" s="20"/>
@@ -22957,7 +22992,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26">
+    <row r="699" spans="1:26" ht="15">
       <c r="A699" s="18"/>
       <c r="B699" s="19"/>
       <c r="C699" s="20"/>
@@ -22985,7 +23020,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26">
+    <row r="700" spans="1:26" ht="15">
       <c r="A700" s="18"/>
       <c r="B700" s="19"/>
       <c r="C700" s="20"/>
@@ -23013,7 +23048,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26">
+    <row r="701" spans="1:26" ht="15">
       <c r="A701" s="18"/>
       <c r="B701" s="19"/>
       <c r="C701" s="20"/>
@@ -23041,7 +23076,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26">
+    <row r="702" spans="1:26" ht="15">
       <c r="A702" s="18"/>
       <c r="B702" s="19"/>
       <c r="C702" s="20"/>
@@ -23069,7 +23104,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26">
+    <row r="703" spans="1:26" ht="15">
       <c r="A703" s="18"/>
       <c r="B703" s="19"/>
       <c r="C703" s="20"/>
@@ -23097,7 +23132,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26">
+    <row r="704" spans="1:26" ht="15">
       <c r="A704" s="18"/>
       <c r="B704" s="19"/>
       <c r="C704" s="20"/>
@@ -23125,7 +23160,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26">
+    <row r="705" spans="1:26" ht="15">
       <c r="A705" s="18"/>
       <c r="B705" s="19"/>
       <c r="C705" s="20"/>
@@ -23153,7 +23188,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26">
+    <row r="706" spans="1:26" ht="15">
       <c r="A706" s="18"/>
       <c r="B706" s="19"/>
       <c r="C706" s="20"/>
@@ -23181,7 +23216,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26">
+    <row r="707" spans="1:26" ht="15">
       <c r="A707" s="18"/>
       <c r="B707" s="19"/>
       <c r="C707" s="20"/>
@@ -23209,7 +23244,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26">
+    <row r="708" spans="1:26" ht="15">
       <c r="A708" s="18"/>
       <c r="B708" s="19"/>
       <c r="C708" s="20"/>
@@ -23237,7 +23272,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26">
+    <row r="709" spans="1:26" ht="15">
       <c r="A709" s="18"/>
       <c r="B709" s="19"/>
       <c r="C709" s="20"/>
@@ -23265,7 +23300,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26">
+    <row r="710" spans="1:26" ht="15">
       <c r="A710" s="18"/>
       <c r="B710" s="19"/>
       <c r="C710" s="20"/>
@@ -23293,7 +23328,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26">
+    <row r="711" spans="1:26" ht="15">
       <c r="A711" s="18"/>
       <c r="B711" s="19"/>
       <c r="C711" s="20"/>
@@ -23321,7 +23356,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26">
+    <row r="712" spans="1:26" ht="15">
       <c r="A712" s="18"/>
       <c r="B712" s="19"/>
       <c r="C712" s="20"/>
@@ -23349,7 +23384,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26">
+    <row r="713" spans="1:26" ht="15">
       <c r="A713" s="18"/>
       <c r="B713" s="19"/>
       <c r="C713" s="20"/>
@@ -23377,7 +23412,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26">
+    <row r="714" spans="1:26" ht="15">
       <c r="A714" s="18"/>
       <c r="B714" s="19"/>
       <c r="C714" s="20"/>
@@ -23405,7 +23440,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26">
+    <row r="715" spans="1:26" ht="15">
       <c r="A715" s="18"/>
       <c r="B715" s="19"/>
       <c r="C715" s="20"/>
@@ -23433,7 +23468,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26">
+    <row r="716" spans="1:26" ht="15">
       <c r="A716" s="18"/>
       <c r="B716" s="19"/>
       <c r="C716" s="20"/>
@@ -23461,7 +23496,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26">
+    <row r="717" spans="1:26" ht="15">
       <c r="A717" s="18"/>
       <c r="B717" s="19"/>
       <c r="C717" s="20"/>
@@ -23489,7 +23524,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26">
+    <row r="718" spans="1:26" ht="15">
       <c r="A718" s="18"/>
       <c r="B718" s="19"/>
       <c r="C718" s="20"/>
@@ -23517,7 +23552,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26">
+    <row r="719" spans="1:26" ht="15">
       <c r="A719" s="18"/>
       <c r="B719" s="19"/>
       <c r="C719" s="20"/>
@@ -23545,7 +23580,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26">
+    <row r="720" spans="1:26" ht="15">
       <c r="A720" s="18"/>
       <c r="B720" s="19"/>
       <c r="C720" s="20"/>
@@ -23573,7 +23608,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26">
+    <row r="721" spans="1:26" ht="15">
       <c r="A721" s="18"/>
       <c r="B721" s="19"/>
       <c r="C721" s="20"/>
@@ -23601,7 +23636,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26">
+    <row r="722" spans="1:26" ht="15">
       <c r="A722" s="18"/>
       <c r="B722" s="19"/>
       <c r="C722" s="20"/>
@@ -23629,7 +23664,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26">
+    <row r="723" spans="1:26" ht="15">
       <c r="A723" s="18"/>
       <c r="B723" s="19"/>
       <c r="C723" s="20"/>
@@ -23657,7 +23692,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26">
+    <row r="724" spans="1:26" ht="15">
       <c r="A724" s="18"/>
       <c r="B724" s="19"/>
       <c r="C724" s="20"/>
@@ -23685,7 +23720,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26">
+    <row r="725" spans="1:26" ht="15">
       <c r="A725" s="18"/>
       <c r="B725" s="19"/>
       <c r="C725" s="20"/>
@@ -23713,7 +23748,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26">
+    <row r="726" spans="1:26" ht="15">
       <c r="A726" s="18"/>
       <c r="B726" s="19"/>
       <c r="C726" s="20"/>
@@ -23741,7 +23776,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26">
+    <row r="727" spans="1:26" ht="15">
       <c r="A727" s="18"/>
       <c r="B727" s="19"/>
       <c r="C727" s="20"/>
@@ -23769,7 +23804,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26">
+    <row r="728" spans="1:26" ht="15">
       <c r="A728" s="18"/>
       <c r="B728" s="19"/>
       <c r="C728" s="20"/>
@@ -23797,7 +23832,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26">
+    <row r="729" spans="1:26" ht="15">
       <c r="A729" s="18"/>
       <c r="B729" s="19"/>
       <c r="C729" s="20"/>
@@ -23825,7 +23860,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26">
+    <row r="730" spans="1:26" ht="15">
       <c r="A730" s="18"/>
       <c r="B730" s="19"/>
       <c r="C730" s="20"/>
@@ -23853,7 +23888,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26">
+    <row r="731" spans="1:26" ht="15">
       <c r="A731" s="18"/>
       <c r="B731" s="19"/>
       <c r="C731" s="20"/>
@@ -23881,7 +23916,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26">
+    <row r="732" spans="1:26" ht="15">
       <c r="A732" s="18"/>
       <c r="B732" s="19"/>
       <c r="C732" s="20"/>
@@ -23909,7 +23944,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26">
+    <row r="733" spans="1:26" ht="15">
       <c r="A733" s="18"/>
       <c r="B733" s="19"/>
       <c r="C733" s="20"/>
@@ -23937,7 +23972,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26">
+    <row r="734" spans="1:26" ht="15">
       <c r="A734" s="18"/>
       <c r="B734" s="19"/>
       <c r="C734" s="20"/>
@@ -23965,7 +24000,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26">
+    <row r="735" spans="1:26" ht="15">
       <c r="A735" s="18"/>
       <c r="B735" s="19"/>
       <c r="C735" s="20"/>
@@ -23993,7 +24028,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26">
+    <row r="736" spans="1:26" ht="15">
       <c r="A736" s="18"/>
       <c r="B736" s="19"/>
       <c r="C736" s="20"/>
@@ -24021,7 +24056,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26">
+    <row r="737" spans="1:26" ht="15">
       <c r="A737" s="18"/>
       <c r="B737" s="19"/>
       <c r="C737" s="20"/>
@@ -24049,7 +24084,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26">
+    <row r="738" spans="1:26" ht="15">
       <c r="A738" s="18"/>
       <c r="B738" s="19"/>
       <c r="C738" s="20"/>
@@ -24077,7 +24112,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26">
+    <row r="739" spans="1:26" ht="15">
       <c r="A739" s="18"/>
       <c r="B739" s="19"/>
       <c r="C739" s="20"/>
@@ -24105,7 +24140,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26">
+    <row r="740" spans="1:26" ht="15">
       <c r="A740" s="18"/>
       <c r="B740" s="19"/>
       <c r="C740" s="20"/>
@@ -24133,7 +24168,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26">
+    <row r="741" spans="1:26" ht="15">
       <c r="A741" s="18"/>
       <c r="B741" s="19"/>
       <c r="C741" s="20"/>
@@ -24161,7 +24196,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26">
+    <row r="742" spans="1:26" ht="15">
       <c r="A742" s="18"/>
       <c r="B742" s="19"/>
       <c r="C742" s="20"/>
@@ -24189,7 +24224,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26">
+    <row r="743" spans="1:26" ht="15">
       <c r="A743" s="18"/>
       <c r="B743" s="19"/>
       <c r="C743" s="20"/>
@@ -24217,7 +24252,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26">
+    <row r="744" spans="1:26" ht="15">
       <c r="A744" s="18"/>
       <c r="B744" s="19"/>
       <c r="C744" s="20"/>
@@ -24245,7 +24280,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26">
+    <row r="745" spans="1:26" ht="15">
       <c r="A745" s="18"/>
       <c r="B745" s="19"/>
       <c r="C745" s="20"/>
@@ -24273,7 +24308,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26">
+    <row r="746" spans="1:26" ht="15">
       <c r="A746" s="18"/>
       <c r="B746" s="19"/>
       <c r="C746" s="20"/>
@@ -24301,7 +24336,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26">
+    <row r="747" spans="1:26" ht="15">
       <c r="A747" s="18"/>
       <c r="B747" s="19"/>
       <c r="C747" s="20"/>
@@ -24329,7 +24364,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26">
+    <row r="748" spans="1:26" ht="15">
       <c r="A748" s="18"/>
       <c r="B748" s="19"/>
       <c r="C748" s="20"/>
@@ -24357,7 +24392,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26">
+    <row r="749" spans="1:26" ht="15">
       <c r="A749" s="18"/>
       <c r="B749" s="19"/>
       <c r="C749" s="20"/>
@@ -24385,7 +24420,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26">
+    <row r="750" spans="1:26" ht="15">
       <c r="A750" s="18"/>
       <c r="B750" s="19"/>
       <c r="C750" s="20"/>
@@ -24413,7 +24448,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26">
+    <row r="751" spans="1:26" ht="15">
       <c r="A751" s="18"/>
       <c r="B751" s="19"/>
       <c r="C751" s="20"/>
@@ -24441,7 +24476,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26">
+    <row r="752" spans="1:26" ht="15">
       <c r="A752" s="18"/>
       <c r="B752" s="19"/>
       <c r="C752" s="20"/>
@@ -24469,7 +24504,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26">
+    <row r="753" spans="1:26" ht="15">
       <c r="A753" s="18"/>
       <c r="B753" s="19"/>
       <c r="C753" s="20"/>
@@ -24497,7 +24532,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26">
+    <row r="754" spans="1:26" ht="15">
       <c r="A754" s="18"/>
       <c r="B754" s="19"/>
       <c r="C754" s="20"/>
@@ -24525,7 +24560,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26">
+    <row r="755" spans="1:26" ht="15">
       <c r="A755" s="18"/>
       <c r="B755" s="19"/>
       <c r="C755" s="20"/>
@@ -24553,7 +24588,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26">
+    <row r="756" spans="1:26" ht="15">
       <c r="A756" s="18"/>
       <c r="B756" s="19"/>
       <c r="C756" s="20"/>
@@ -24581,7 +24616,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26">
+    <row r="757" spans="1:26" ht="15">
       <c r="A757" s="18"/>
       <c r="B757" s="19"/>
       <c r="C757" s="20"/>
@@ -24609,7 +24644,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26">
+    <row r="758" spans="1:26" ht="15">
       <c r="A758" s="18"/>
       <c r="B758" s="19"/>
       <c r="C758" s="20"/>
@@ -24637,7 +24672,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26">
+    <row r="759" spans="1:26" ht="15">
       <c r="A759" s="18"/>
       <c r="B759" s="19"/>
       <c r="C759" s="20"/>
@@ -24665,7 +24700,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26">
+    <row r="760" spans="1:26" ht="15">
       <c r="A760" s="18"/>
       <c r="B760" s="19"/>
       <c r="C760" s="20"/>
@@ -24693,7 +24728,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26">
+    <row r="761" spans="1:26" ht="15">
       <c r="A761" s="18"/>
       <c r="B761" s="19"/>
       <c r="C761" s="20"/>
@@ -24721,7 +24756,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26">
+    <row r="762" spans="1:26" ht="15">
       <c r="A762" s="18"/>
       <c r="B762" s="19"/>
       <c r="C762" s="20"/>
@@ -24749,7 +24784,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26">
+    <row r="763" spans="1:26" ht="15">
       <c r="A763" s="18"/>
       <c r="B763" s="19"/>
       <c r="C763" s="20"/>
@@ -24777,7 +24812,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26">
+    <row r="764" spans="1:26" ht="15">
       <c r="A764" s="18"/>
       <c r="B764" s="19"/>
       <c r="C764" s="20"/>
@@ -24805,7 +24840,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26">
+    <row r="765" spans="1:26" ht="15">
       <c r="A765" s="18"/>
       <c r="B765" s="19"/>
       <c r="C765" s="20"/>
@@ -24833,7 +24868,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26">
+    <row r="766" spans="1:26" ht="15">
       <c r="A766" s="18"/>
       <c r="B766" s="19"/>
       <c r="C766" s="20"/>
@@ -24861,7 +24896,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26">
+    <row r="767" spans="1:26" ht="15">
       <c r="A767" s="18"/>
       <c r="B767" s="19"/>
       <c r="C767" s="20"/>
@@ -24889,7 +24924,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26">
+    <row r="768" spans="1:26" ht="15">
       <c r="A768" s="18"/>
       <c r="B768" s="19"/>
       <c r="C768" s="20"/>
@@ -24917,7 +24952,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26">
+    <row r="769" spans="1:26" ht="15">
       <c r="A769" s="18"/>
       <c r="B769" s="19"/>
       <c r="C769" s="20"/>
@@ -24945,7 +24980,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26">
+    <row r="770" spans="1:26" ht="15">
       <c r="A770" s="18"/>
       <c r="B770" s="19"/>
       <c r="C770" s="20"/>
@@ -24973,7 +25008,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26">
+    <row r="771" spans="1:26" ht="15">
       <c r="A771" s="18"/>
       <c r="B771" s="19"/>
       <c r="C771" s="20"/>
@@ -25001,7 +25036,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26">
+    <row r="772" spans="1:26" ht="15">
       <c r="A772" s="18"/>
       <c r="B772" s="19"/>
       <c r="C772" s="20"/>
@@ -25029,7 +25064,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26">
+    <row r="773" spans="1:26" ht="15">
       <c r="A773" s="18"/>
       <c r="B773" s="19"/>
       <c r="C773" s="20"/>
@@ -25057,7 +25092,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26">
+    <row r="774" spans="1:26" ht="15">
       <c r="A774" s="18"/>
       <c r="B774" s="19"/>
       <c r="C774" s="20"/>
@@ -25085,7 +25120,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26">
+    <row r="775" spans="1:26" ht="15">
       <c r="A775" s="18"/>
       <c r="B775" s="19"/>
       <c r="C775" s="20"/>
@@ -25113,7 +25148,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26">
+    <row r="776" spans="1:26" ht="15">
       <c r="A776" s="18"/>
       <c r="B776" s="19"/>
       <c r="C776" s="20"/>
@@ -25141,7 +25176,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26">
+    <row r="777" spans="1:26" ht="15">
       <c r="A777" s="18"/>
       <c r="B777" s="19"/>
       <c r="C777" s="20"/>
@@ -25169,7 +25204,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26">
+    <row r="778" spans="1:26" ht="15">
       <c r="A778" s="18"/>
       <c r="B778" s="19"/>
       <c r="C778" s="20"/>
@@ -25197,7 +25232,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26">
+    <row r="779" spans="1:26" ht="15">
       <c r="A779" s="18"/>
       <c r="B779" s="19"/>
       <c r="C779" s="20"/>
@@ -25225,7 +25260,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26">
+    <row r="780" spans="1:26" ht="15">
       <c r="A780" s="18"/>
       <c r="B780" s="19"/>
       <c r="C780" s="20"/>
@@ -25253,7 +25288,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26">
+    <row r="781" spans="1:26" ht="15">
       <c r="A781" s="18"/>
       <c r="B781" s="19"/>
       <c r="C781" s="20"/>
@@ -25281,7 +25316,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26">
+    <row r="782" spans="1:26" ht="15">
       <c r="A782" s="18"/>
       <c r="B782" s="19"/>
       <c r="C782" s="20"/>
@@ -25309,7 +25344,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26">
+    <row r="783" spans="1:26" ht="15">
       <c r="A783" s="18"/>
       <c r="B783" s="19"/>
       <c r="C783" s="20"/>
@@ -25337,7 +25372,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26">
+    <row r="784" spans="1:26" ht="15">
       <c r="A784" s="18"/>
       <c r="B784" s="19"/>
       <c r="C784" s="20"/>
@@ -25365,7 +25400,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26">
+    <row r="785" spans="1:26" ht="15">
       <c r="A785" s="18"/>
       <c r="B785" s="19"/>
       <c r="C785" s="20"/>
@@ -25393,7 +25428,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26">
+    <row r="786" spans="1:26" ht="15">
       <c r="A786" s="18"/>
       <c r="B786" s="19"/>
       <c r="C786" s="20"/>
@@ -25421,7 +25456,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26">
+    <row r="787" spans="1:26" ht="15">
       <c r="A787" s="18"/>
       <c r="B787" s="19"/>
       <c r="C787" s="20"/>
@@ -25449,7 +25484,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26">
+    <row r="788" spans="1:26" ht="15">
       <c r="A788" s="18"/>
       <c r="B788" s="19"/>
       <c r="C788" s="20"/>
@@ -25477,7 +25512,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26">
+    <row r="789" spans="1:26" ht="15">
       <c r="A789" s="18"/>
       <c r="B789" s="19"/>
       <c r="C789" s="20"/>
@@ -25505,7 +25540,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26">
+    <row r="790" spans="1:26" ht="15">
       <c r="A790" s="18"/>
       <c r="B790" s="19"/>
       <c r="C790" s="20"/>
@@ -25533,7 +25568,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26">
+    <row r="791" spans="1:26" ht="15">
       <c r="A791" s="18"/>
       <c r="B791" s="19"/>
       <c r="C791" s="20"/>
@@ -25561,7 +25596,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26">
+    <row r="792" spans="1:26" ht="15">
       <c r="A792" s="18"/>
       <c r="B792" s="19"/>
       <c r="C792" s="20"/>
@@ -25589,7 +25624,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26">
+    <row r="793" spans="1:26" ht="15">
       <c r="A793" s="18"/>
       <c r="B793" s="19"/>
       <c r="C793" s="20"/>
@@ -25617,7 +25652,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26">
+    <row r="794" spans="1:26" ht="15">
       <c r="A794" s="18"/>
       <c r="B794" s="19"/>
       <c r="C794" s="20"/>
@@ -25645,7 +25680,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26">
+    <row r="795" spans="1:26" ht="15">
       <c r="A795" s="18"/>
       <c r="B795" s="19"/>
       <c r="C795" s="20"/>
@@ -25673,7 +25708,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26">
+    <row r="796" spans="1:26" ht="15">
       <c r="A796" s="18"/>
       <c r="B796" s="19"/>
       <c r="C796" s="20"/>
@@ -25701,7 +25736,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26">
+    <row r="797" spans="1:26" ht="15">
       <c r="A797" s="18"/>
       <c r="B797" s="19"/>
       <c r="C797" s="20"/>
@@ -25729,7 +25764,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26">
+    <row r="798" spans="1:26" ht="15">
       <c r="A798" s="18"/>
       <c r="B798" s="19"/>
       <c r="C798" s="20"/>
@@ -25757,7 +25792,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26">
+    <row r="799" spans="1:26" ht="15">
       <c r="A799" s="18"/>
       <c r="B799" s="19"/>
       <c r="C799" s="20"/>
@@ -25785,7 +25820,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26">
+    <row r="800" spans="1:26" ht="15">
       <c r="A800" s="18"/>
       <c r="B800" s="19"/>
       <c r="C800" s="20"/>
@@ -25813,7 +25848,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26">
+    <row r="801" spans="1:26" ht="15">
       <c r="A801" s="18"/>
       <c r="B801" s="19"/>
       <c r="C801" s="20"/>
@@ -25841,7 +25876,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26">
+    <row r="802" spans="1:26" ht="15">
       <c r="A802" s="18"/>
       <c r="B802" s="19"/>
       <c r="C802" s="20"/>
@@ -25869,7 +25904,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26">
+    <row r="803" spans="1:26" ht="15">
       <c r="A803" s="18"/>
       <c r="B803" s="19"/>
       <c r="C803" s="20"/>
@@ -25897,7 +25932,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26">
+    <row r="804" spans="1:26" ht="15">
       <c r="A804" s="18"/>
       <c r="B804" s="19"/>
       <c r="C804" s="20"/>
@@ -25925,7 +25960,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26">
+    <row r="805" spans="1:26" ht="15">
       <c r="A805" s="18"/>
       <c r="B805" s="19"/>
       <c r="C805" s="20"/>
@@ -25953,7 +25988,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26">
+    <row r="806" spans="1:26" ht="15">
       <c r="A806" s="18"/>
       <c r="B806" s="19"/>
       <c r="C806" s="20"/>
@@ -25981,7 +26016,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26">
+    <row r="807" spans="1:26" ht="15">
       <c r="A807" s="18"/>
       <c r="B807" s="19"/>
       <c r="C807" s="20"/>
@@ -26009,7 +26044,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26">
+    <row r="808" spans="1:26" ht="15">
       <c r="A808" s="18"/>
       <c r="B808" s="19"/>
       <c r="C808" s="20"/>
@@ -26037,7 +26072,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26">
+    <row r="809" spans="1:26" ht="15">
       <c r="A809" s="18"/>
       <c r="B809" s="19"/>
       <c r="C809" s="20"/>
@@ -26065,7 +26100,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26">
+    <row r="810" spans="1:26" ht="15">
       <c r="A810" s="18"/>
       <c r="B810" s="19"/>
       <c r="C810" s="20"/>
@@ -26093,7 +26128,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26">
+    <row r="811" spans="1:26" ht="15">
       <c r="A811" s="18"/>
       <c r="B811" s="19"/>
       <c r="C811" s="20"/>
@@ -26121,7 +26156,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26">
+    <row r="812" spans="1:26" ht="15">
       <c r="A812" s="18"/>
       <c r="B812" s="19"/>
       <c r="C812" s="20"/>
@@ -26149,7 +26184,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26">
+    <row r="813" spans="1:26" ht="15">
       <c r="A813" s="18"/>
       <c r="B813" s="19"/>
       <c r="C813" s="20"/>
@@ -26177,7 +26212,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26">
+    <row r="814" spans="1:26" ht="15">
       <c r="A814" s="18"/>
       <c r="B814" s="19"/>
       <c r="C814" s="20"/>
@@ -26205,7 +26240,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26">
+    <row r="815" spans="1:26" ht="15">
       <c r="A815" s="18"/>
       <c r="B815" s="19"/>
       <c r="C815" s="20"/>
@@ -26233,7 +26268,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26">
+    <row r="816" spans="1:26" ht="15">
       <c r="A816" s="18"/>
       <c r="B816" s="19"/>
       <c r="C816" s="20"/>
@@ -26261,7 +26296,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26">
+    <row r="817" spans="1:26" ht="15">
       <c r="A817" s="18"/>
       <c r="B817" s="19"/>
       <c r="C817" s="20"/>
@@ -26289,7 +26324,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26">
+    <row r="818" spans="1:26" ht="15">
       <c r="A818" s="18"/>
       <c r="B818" s="19"/>
       <c r="C818" s="20"/>
@@ -26317,7 +26352,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26">
+    <row r="819" spans="1:26" ht="15">
       <c r="A819" s="18"/>
       <c r="B819" s="19"/>
       <c r="C819" s="20"/>
@@ -26345,7 +26380,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26">
+    <row r="820" spans="1:26" ht="15">
       <c r="A820" s="18"/>
       <c r="B820" s="19"/>
       <c r="C820" s="20"/>
@@ -26373,7 +26408,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26">
+    <row r="821" spans="1:26" ht="15">
       <c r="A821" s="18"/>
       <c r="B821" s="19"/>
       <c r="C821" s="20"/>
@@ -26401,7 +26436,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26">
+    <row r="822" spans="1:26" ht="15">
       <c r="A822" s="18"/>
       <c r="B822" s="19"/>
       <c r="C822" s="20"/>
@@ -26429,7 +26464,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26">
+    <row r="823" spans="1:26" ht="15">
       <c r="A823" s="18"/>
       <c r="B823" s="19"/>
       <c r="C823" s="20"/>
@@ -26457,7 +26492,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26">
+    <row r="824" spans="1:26" ht="15">
       <c r="A824" s="18"/>
       <c r="B824" s="19"/>
       <c r="C824" s="20"/>
@@ -26485,7 +26520,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26">
+    <row r="825" spans="1:26" ht="15">
       <c r="A825" s="18"/>
       <c r="B825" s="19"/>
       <c r="C825" s="20"/>
@@ -26513,7 +26548,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26">
+    <row r="826" spans="1:26" ht="15">
       <c r="A826" s="18"/>
       <c r="B826" s="19"/>
       <c r="C826" s="20"/>
@@ -26541,7 +26576,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26">
+    <row r="827" spans="1:26" ht="15">
       <c r="A827" s="18"/>
       <c r="B827" s="19"/>
       <c r="C827" s="20"/>
@@ -26569,7 +26604,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26">
+    <row r="828" spans="1:26" ht="15">
       <c r="A828" s="18"/>
       <c r="B828" s="19"/>
       <c r="C828" s="20"/>
@@ -26597,7 +26632,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26">
+    <row r="829" spans="1:26" ht="15">
       <c r="A829" s="18"/>
       <c r="B829" s="19"/>
       <c r="C829" s="20"/>
@@ -26625,7 +26660,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26">
+    <row r="830" spans="1:26" ht="15">
       <c r="A830" s="18"/>
       <c r="B830" s="19"/>
       <c r="C830" s="20"/>
@@ -26653,7 +26688,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26">
+    <row r="831" spans="1:26" ht="15">
       <c r="A831" s="18"/>
       <c r="B831" s="19"/>
       <c r="C831" s="20"/>
@@ -26681,7 +26716,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26">
+    <row r="832" spans="1:26" ht="15">
       <c r="A832" s="18"/>
       <c r="B832" s="19"/>
       <c r="C832" s="20"/>
@@ -26709,7 +26744,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26">
+    <row r="833" spans="1:26" ht="15">
       <c r="A833" s="18"/>
       <c r="B833" s="19"/>
       <c r="C833" s="20"/>
@@ -26737,7 +26772,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26">
+    <row r="834" spans="1:26" ht="15">
       <c r="A834" s="18"/>
       <c r="B834" s="19"/>
       <c r="C834" s="20"/>
@@ -26765,7 +26800,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26">
+    <row r="835" spans="1:26" ht="15">
       <c r="A835" s="18"/>
       <c r="B835" s="19"/>
       <c r="C835" s="20"/>
@@ -26793,7 +26828,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26">
+    <row r="836" spans="1:26" ht="15">
       <c r="A836" s="18"/>
       <c r="B836" s="19"/>
       <c r="C836" s="20"/>
@@ -26821,7 +26856,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26">
+    <row r="837" spans="1:26" ht="15">
       <c r="A837" s="18"/>
       <c r="B837" s="19"/>
       <c r="C837" s="20"/>
@@ -26849,7 +26884,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26">
+    <row r="838" spans="1:26" ht="15">
       <c r="A838" s="18"/>
       <c r="B838" s="19"/>
       <c r="C838" s="20"/>
@@ -26877,7 +26912,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26">
+    <row r="839" spans="1:26" ht="15">
       <c r="A839" s="18"/>
       <c r="B839" s="19"/>
       <c r="C839" s="20"/>
@@ -26905,7 +26940,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26">
+    <row r="840" spans="1:26" ht="15">
       <c r="A840" s="18"/>
       <c r="B840" s="19"/>
       <c r="C840" s="20"/>
@@ -26933,7 +26968,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26">
+    <row r="841" spans="1:26" ht="15">
       <c r="A841" s="18"/>
       <c r="B841" s="19"/>
       <c r="C841" s="20"/>
@@ -26961,7 +26996,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26">
+    <row r="842" spans="1:26" ht="15">
       <c r="A842" s="18"/>
       <c r="B842" s="19"/>
       <c r="C842" s="20"/>
@@ -26989,7 +27024,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26">
+    <row r="843" spans="1:26" ht="15">
       <c r="A843" s="18"/>
       <c r="B843" s="19"/>
       <c r="C843" s="20"/>
@@ -27017,7 +27052,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26">
+    <row r="844" spans="1:26" ht="15">
       <c r="A844" s="18"/>
       <c r="B844" s="19"/>
       <c r="C844" s="20"/>
@@ -27045,7 +27080,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26">
+    <row r="845" spans="1:26" ht="15">
       <c r="A845" s="18"/>
       <c r="B845" s="19"/>
       <c r="C845" s="20"/>
@@ -27073,7 +27108,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26">
+    <row r="846" spans="1:26" ht="15">
       <c r="A846" s="18"/>
       <c r="B846" s="19"/>
       <c r="C846" s="20"/>
@@ -27101,7 +27136,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26">
+    <row r="847" spans="1:26" ht="15">
       <c r="A847" s="18"/>
       <c r="B847" s="19"/>
       <c r="C847" s="20"/>
@@ -27129,7 +27164,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26">
+    <row r="848" spans="1:26" ht="15">
       <c r="A848" s="18"/>
       <c r="B848" s="19"/>
       <c r="C848" s="20"/>
@@ -27157,7 +27192,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26">
+    <row r="849" spans="1:26" ht="15">
       <c r="A849" s="18"/>
       <c r="B849" s="19"/>
       <c r="C849" s="20"/>
@@ -27185,7 +27220,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26">
+    <row r="850" spans="1:26" ht="15">
       <c r="A850" s="18"/>
       <c r="B850" s="19"/>
       <c r="C850" s="20"/>
@@ -27213,7 +27248,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26">
+    <row r="851" spans="1:26" ht="15">
       <c r="A851" s="18"/>
       <c r="B851" s="19"/>
       <c r="C851" s="20"/>
@@ -27241,7 +27276,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26">
+    <row r="852" spans="1:26" ht="15">
       <c r="A852" s="18"/>
       <c r="B852" s="19"/>
       <c r="C852" s="20"/>
@@ -27269,7 +27304,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26">
+    <row r="853" spans="1:26" ht="15">
       <c r="A853" s="18"/>
       <c r="B853" s="19"/>
       <c r="C853" s="20"/>
@@ -27297,7 +27332,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26">
+    <row r="854" spans="1:26" ht="15">
       <c r="A854" s="18"/>
       <c r="B854" s="19"/>
       <c r="C854" s="20"/>
@@ -27325,7 +27360,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26">
+    <row r="855" spans="1:26" ht="15">
       <c r="A855" s="18"/>
       <c r="B855" s="19"/>
       <c r="C855" s="20"/>
@@ -27353,7 +27388,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26">
+    <row r="856" spans="1:26" ht="15">
       <c r="A856" s="18"/>
       <c r="B856" s="19"/>
       <c r="C856" s="20"/>
@@ -27381,7 +27416,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26">
+    <row r="857" spans="1:26" ht="15">
       <c r="A857" s="18"/>
       <c r="B857" s="19"/>
       <c r="C857" s="20"/>
@@ -27409,7 +27444,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26">
+    <row r="858" spans="1:26" ht="15">
       <c r="A858" s="18"/>
       <c r="B858" s="19"/>
       <c r="C858" s="20"/>
@@ -27437,7 +27472,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26">
+    <row r="859" spans="1:26" ht="15">
       <c r="A859" s="18"/>
       <c r="B859" s="19"/>
       <c r="C859" s="20"/>
@@ -27465,7 +27500,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26">
+    <row r="860" spans="1:26" ht="15">
       <c r="A860" s="18"/>
       <c r="B860" s="19"/>
       <c r="C860" s="20"/>
@@ -27493,7 +27528,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26">
+    <row r="861" spans="1:26" ht="15">
       <c r="A861" s="18"/>
       <c r="B861" s="19"/>
       <c r="C861" s="20"/>
@@ -27521,7 +27556,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26">
+    <row r="862" spans="1:26" ht="15">
       <c r="A862" s="18"/>
       <c r="B862" s="19"/>
       <c r="C862" s="20"/>
@@ -27549,7 +27584,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26">
+    <row r="863" spans="1:26" ht="15">
       <c r="A863" s="18"/>
       <c r="B863" s="19"/>
       <c r="C863" s="20"/>
@@ -27577,7 +27612,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26">
+    <row r="864" spans="1:26" ht="15">
       <c r="A864" s="18"/>
       <c r="B864" s="19"/>
       <c r="C864" s="20"/>
@@ -27605,7 +27640,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26">
+    <row r="865" spans="1:26" ht="15">
       <c r="A865" s="18"/>
       <c r="B865" s="19"/>
       <c r="C865" s="20"/>
@@ -27633,7 +27668,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26">
+    <row r="866" spans="1:26" ht="15">
       <c r="A866" s="18"/>
       <c r="B866" s="19"/>
       <c r="C866" s="20"/>
@@ -27661,7 +27696,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26">
+    <row r="867" spans="1:26" ht="15">
       <c r="A867" s="18"/>
       <c r="B867" s="19"/>
       <c r="C867" s="20"/>
@@ -27689,7 +27724,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26">
+    <row r="868" spans="1:26" ht="15">
       <c r="A868" s="18"/>
       <c r="B868" s="19"/>
       <c r="C868" s="20"/>
@@ -27717,7 +27752,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26">
+    <row r="869" spans="1:26" ht="15">
       <c r="A869" s="18"/>
       <c r="B869" s="19"/>
       <c r="C869" s="20"/>
@@ -27745,7 +27780,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26">
+    <row r="870" spans="1:26" ht="15">
       <c r="A870" s="18"/>
       <c r="B870" s="19"/>
       <c r="C870" s="20"/>
@@ -27773,7 +27808,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26">
+    <row r="871" spans="1:26" ht="15">
       <c r="A871" s="18"/>
       <c r="B871" s="19"/>
       <c r="C871" s="20"/>
@@ -27801,7 +27836,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26">
+    <row r="872" spans="1:26" ht="15">
       <c r="A872" s="18"/>
       <c r="B872" s="19"/>
       <c r="C872" s="20"/>
@@ -27829,7 +27864,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26">
+    <row r="873" spans="1:26" ht="15">
       <c r="A873" s="18"/>
       <c r="B873" s="19"/>
       <c r="C873" s="20"/>
@@ -27857,7 +27892,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26">
+    <row r="874" spans="1:26" ht="15">
       <c r="A874" s="18"/>
       <c r="B874" s="19"/>
       <c r="C874" s="20"/>
@@ -27885,7 +27920,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26">
+    <row r="875" spans="1:26" ht="15">
       <c r="A875" s="18"/>
       <c r="B875" s="19"/>
       <c r="C875" s="20"/>
@@ -27913,7 +27948,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26">
+    <row r="876" spans="1:26" ht="15">
       <c r="A876" s="18"/>
       <c r="B876" s="19"/>
       <c r="C876" s="20"/>
@@ -27941,7 +27976,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26">
+    <row r="877" spans="1:26" ht="15">
       <c r="A877" s="18"/>
       <c r="B877" s="19"/>
       <c r="C877" s="20"/>
@@ -27969,7 +28004,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26">
+    <row r="878" spans="1:26" ht="15">
       <c r="A878" s="18"/>
       <c r="B878" s="19"/>
       <c r="C878" s="20"/>
@@ -27997,7 +28032,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26">
+    <row r="879" spans="1:26" ht="15">
       <c r="A879" s="18"/>
       <c r="B879" s="19"/>
       <c r="C879" s="20"/>
@@ -28025,7 +28060,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26">
+    <row r="880" spans="1:26" ht="15">
       <c r="A880" s="18"/>
       <c r="B880" s="19"/>
       <c r="C880" s="20"/>
@@ -28053,7 +28088,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26">
+    <row r="881" spans="1:26" ht="15">
       <c r="A881" s="18"/>
       <c r="B881" s="19"/>
       <c r="C881" s="20"/>
@@ -28081,7 +28116,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26">
+    <row r="882" spans="1:26" ht="15">
       <c r="A882" s="18"/>
       <c r="B882" s="19"/>
       <c r="C882" s="20"/>
@@ -28109,7 +28144,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26">
+    <row r="883" spans="1:26" ht="15">
       <c r="A883" s="18"/>
       <c r="B883" s="19"/>
       <c r="C883" s="20"/>
@@ -28137,7 +28172,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26">
+    <row r="884" spans="1:26" ht="15">
       <c r="A884" s="18"/>
       <c r="B884" s="19"/>
       <c r="C884" s="20"/>
@@ -28165,7 +28200,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26">
+    <row r="885" spans="1:26" ht="15">
       <c r="A885" s="18"/>
       <c r="B885" s="19"/>
       <c r="C885" s="20"/>
@@ -28193,7 +28228,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26">
+    <row r="886" spans="1:26" ht="15">
       <c r="A886" s="18"/>
       <c r="B886" s="19"/>
       <c r="C886" s="20"/>
@@ -28221,7 +28256,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26">
+    <row r="887" spans="1:26" ht="15">
       <c r="A887" s="18"/>
       <c r="B887" s="19"/>
       <c r="C887" s="20"/>
@@ -28249,7 +28284,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26">
+    <row r="888" spans="1:26" ht="15">
       <c r="A888" s="18"/>
       <c r="B888" s="19"/>
       <c r="C888" s="20"/>
@@ -28277,7 +28312,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26">
+    <row r="889" spans="1:26" ht="15">
       <c r="A889" s="18"/>
       <c r="B889" s="19"/>
       <c r="C889" s="20"/>
@@ -28305,7 +28340,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26">
+    <row r="890" spans="1:26" ht="15">
       <c r="A890" s="18"/>
       <c r="B890" s="19"/>
       <c r="C890" s="20"/>
@@ -28333,7 +28368,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26">
+    <row r="891" spans="1:26" ht="15">
       <c r="A891" s="18"/>
       <c r="B891" s="19"/>
       <c r="C891" s="20"/>
@@ -28361,7 +28396,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26">
+    <row r="892" spans="1:26" ht="15">
       <c r="A892" s="18"/>
       <c r="B892" s="19"/>
       <c r="C892" s="20"/>
@@ -28389,7 +28424,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26">
+    <row r="893" spans="1:26" ht="15">
       <c r="A893" s="18"/>
       <c r="B893" s="19"/>
       <c r="C893" s="20"/>
@@ -28417,7 +28452,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26">
+    <row r="894" spans="1:26" ht="15">
       <c r="A894" s="18"/>
       <c r="B894" s="19"/>
       <c r="C894" s="20"/>
@@ -28445,7 +28480,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26">
+    <row r="895" spans="1:26" ht="15">
       <c r="A895" s="18"/>
       <c r="B895" s="19"/>
       <c r="C895" s="20"/>
@@ -28473,7 +28508,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26">
+    <row r="896" spans="1:26" ht="15">
       <c r="A896" s="18"/>
       <c r="B896" s="19"/>
       <c r="C896" s="20"/>
@@ -28501,7 +28536,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26">
+    <row r="897" spans="1:26" ht="15">
       <c r="A897" s="18"/>
       <c r="B897" s="19"/>
       <c r="C897" s="20"/>
@@ -28529,7 +28564,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26">
+    <row r="898" spans="1:26" ht="15">
       <c r="A898" s="18"/>
       <c r="B898" s="19"/>
       <c r="C898" s="20"/>
@@ -28557,7 +28592,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26">
+    <row r="899" spans="1:26" ht="15">
       <c r="A899" s="18"/>
       <c r="B899" s="19"/>
       <c r="C899" s="20"/>
@@ -28585,7 +28620,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26">
+    <row r="900" spans="1:26" ht="15">
       <c r="A900" s="18"/>
       <c r="B900" s="19"/>
       <c r="C900" s="20"/>
@@ -28613,7 +28648,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26">
+    <row r="901" spans="1:26" ht="15">
       <c r="A901" s="18"/>
       <c r="B901" s="19"/>
       <c r="C901" s="20"/>
@@ -28641,7 +28676,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26">
+    <row r="902" spans="1:26" ht="15">
       <c r="A902" s="18"/>
       <c r="B902" s="19"/>
       <c r="C902" s="20"/>
@@ -28669,7 +28704,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26">
+    <row r="903" spans="1:26" ht="15">
       <c r="A903" s="18"/>
       <c r="B903" s="19"/>
       <c r="C903" s="20"/>
@@ -28697,7 +28732,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26">
+    <row r="904" spans="1:26" ht="15">
       <c r="A904" s="18"/>
       <c r="B904" s="19"/>
       <c r="C904" s="20"/>
@@ -28725,7 +28760,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26">
+    <row r="905" spans="1:26" ht="15">
       <c r="A905" s="18"/>
       <c r="B905" s="19"/>
       <c r="C905" s="20"/>
@@ -28753,7 +28788,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26">
+    <row r="906" spans="1:26" ht="15">
       <c r="A906" s="18"/>
       <c r="B906" s="19"/>
       <c r="C906" s="20"/>
@@ -28781,7 +28816,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26">
+    <row r="907" spans="1:26" ht="15">
       <c r="A907" s="18"/>
       <c r="B907" s="19"/>
       <c r="C907" s="20"/>
@@ -28809,7 +28844,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26">
+    <row r="908" spans="1:26" ht="15">
       <c r="A908" s="18"/>
       <c r="B908" s="19"/>
       <c r="C908" s="20"/>
@@ -28837,7 +28872,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26">
+    <row r="909" spans="1:26" ht="15">
       <c r="A909" s="18"/>
       <c r="B909" s="19"/>
       <c r="C909" s="20"/>
@@ -28865,7 +28900,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26">
+    <row r="910" spans="1:26" ht="15">
       <c r="A910" s="18"/>
       <c r="B910" s="19"/>
       <c r="C910" s="20"/>
@@ -28893,7 +28928,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26">
+    <row r="911" spans="1:26" ht="15">
       <c r="A911" s="18"/>
       <c r="B911" s="19"/>
       <c r="C911" s="20"/>
@@ -28921,7 +28956,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26">
+    <row r="912" spans="1:26" ht="15">
       <c r="A912" s="18"/>
       <c r="B912" s="19"/>
       <c r="C912" s="20"/>
@@ -28949,7 +28984,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26">
+    <row r="913" spans="1:26" ht="15">
       <c r="A913" s="18"/>
       <c r="B913" s="19"/>
       <c r="C913" s="20"/>
@@ -28977,7 +29012,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26">
+    <row r="914" spans="1:26" ht="15">
       <c r="A914" s="18"/>
       <c r="B914" s="19"/>
       <c r="C914" s="20"/>
@@ -29005,7 +29040,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26">
+    <row r="915" spans="1:26" ht="15">
       <c r="A915" s="18"/>
       <c r="B915" s="19"/>
       <c r="C915" s="20"/>
@@ -29033,7 +29068,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26">
+    <row r="916" spans="1:26" ht="15">
       <c r="A916" s="18"/>
       <c r="B916" s="19"/>
       <c r="C916" s="20"/>
@@ -29061,7 +29096,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26">
+    <row r="917" spans="1:26" ht="15">
       <c r="A917" s="18"/>
       <c r="B917" s="19"/>
       <c r="C917" s="20"/>
@@ -29089,7 +29124,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26">
+    <row r="918" spans="1:26" ht="15">
       <c r="A918" s="18"/>
       <c r="B918" s="19"/>
       <c r="C918" s="20"/>
@@ -29117,7 +29152,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26">
+    <row r="919" spans="1:26" ht="15">
       <c r="A919" s="18"/>
       <c r="B919" s="19"/>
       <c r="C919" s="20"/>
@@ -29147,13 +29182,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{C1A4E709-E9F1-4376-A047-F26FFC5F2C8F}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:C37"/>
+    </customSheetView>
     <customSheetView guid="{5451177E-605B-4368-AC7B-D46C41798C55}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A293:C332"/>
-    </customSheetView>
-    <customSheetView guid="{C1A4E709-E9F1-4376-A047-F26FFC5F2C8F}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -29554,21 +29589,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="63.44140625" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="12.75">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -16,14 +16,14 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{5451177E-605B-4368-AC7B-D46C41798C55}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{C1A4E709-E9F1-4376-A047-F26FFC5F2C8F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{5451177E-605B-4368-AC7B-D46C41798C55}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="468">
   <si>
     <t>DSA by Shradha Didi &amp; Aman Bhaiya</t>
   </si>
@@ -1798,6 +1798,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,10 +1812,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2026,8 +2026,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -2039,12 +2039,12 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:26" ht="32.25" customHeight="1">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2070,11 +2070,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -2100,9 +2100,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2128,9 +2128,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2221,7 +2221,7 @@
       <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2"/>
@@ -2255,7 +2255,7 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F12" s="2"/>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F13" s="2"/>
@@ -3263,7 +3263,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="44"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F40" s="2"/>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F41" s="2"/>
@@ -3367,7 +3367,7 @@
       <c r="D42" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F42" s="2"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F43" s="2"/>
@@ -3437,7 +3437,7 @@
         <v>57</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="39" t="s">
         <v>467</v>
       </c>
       <c r="F44" s="2"/>
@@ -3471,7 +3471,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="39" t="s">
+        <v>467</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -29182,13 +29184,13 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{5451177E-605B-4368-AC7B-D46C41798C55}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A293:C332"/>
+    </customSheetView>
     <customSheetView guid="{C1A4E709-E9F1-4376-A047-F26FFC5F2C8F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A11:C37"/>
-    </customSheetView>
-    <customSheetView guid="{5451177E-605B-4368-AC7B-D46C41798C55}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -29597,28 +29599,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
